--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE94049-ADF5-4D6F-BD60-3F47A474F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143B8FB-8E1E-418C-850B-385FBF00EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="11856" yWindow="2316" windowWidth="29592" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -1598,10 +1598,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5559,30 +5559,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5691,10 +5691,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5748,10 +5748,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5800,10 +5800,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5841,10 +5841,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5968,15 +5968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5988,8 +5988,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6276,7 +6276,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143B8FB-8E1E-418C-850B-385FBF00EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04670DAF-C044-4975-99AD-6909ABFE32EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11856" yWindow="2316" windowWidth="29592" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1598,10 +1598,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5559,30 +5559,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5691,10 +5691,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5748,10 +5748,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5800,10 +5800,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5841,10 +5841,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5968,15 +5968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5989,7 +5989,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6061,13 +6061,15 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>monster_ref!$B$4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="F2" s="51"/>
       <c r="G2" s="48">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04670DAF-C044-4975-99AD-6909ABFE32EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76466D5B-0ABD-4BA7-8F46-C7F36FB88D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11856" yWindow="2316" windowWidth="29592" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1601,10 +1601,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5559,13 +5559,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5783,10 +5783,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5968,15 +5968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5989,7 +5989,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6061,15 +6061,13 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>monster_ref!$B$4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>182</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="51"/>
       <c r="G2" s="48">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76466D5B-0ABD-4BA7-8F46-C7F36FB88D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCFA2B1-F133-4787-90BC-6ADEE608EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11856" yWindow="2316" windowWidth="29592" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1598,13 +1598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5559,30 +5559,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5691,10 +5691,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5748,10 +5748,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5783,10 +5783,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5800,10 +5800,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5841,10 +5841,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5968,6 +5968,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -5975,8 +5977,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5989,7 +5989,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6061,13 +6061,15 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>monster_ref!$B$4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="F2" s="51"/>
       <c r="G2" s="48">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCFA2B1-F133-4787-90BC-6ADEE608EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534B414-69AE-4284-BC02-544EC1D013F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11856" yWindow="2316" windowWidth="29592" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1598,10 +1598,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,6 +1616,10 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2302,10 +2306,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4821,22 +4821,24 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="52"/>
     <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="0">
+      <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:J7" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4850,47 +4852,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B3:D9" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4916,11 +4918,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5559,30 +5561,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5691,10 +5693,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5748,10 +5750,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5800,10 +5802,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5841,10 +5843,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5968,15 +5970,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6061,15 +6063,13 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>monster_ref!$B$4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>182</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="51"/>
       <c r="G2" s="48">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\만두~\게임 프로젝트\4) 2023.10 ~ 2023.12 인턴 프로젝트\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534B414-69AE-4284-BC02-544EC1D013F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABABE8-48B5-4683-97E9-ED41F730A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11856" yWindow="2316" windowWidth="29592" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="30612" yWindow="1800" windowWidth="23256" windowHeight="12576" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1601,10 +1601,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,10 +1616,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2306,6 +2302,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4629,7 +4629,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="몬스터"/>
@@ -4821,24 +4821,24 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="52"/>
     <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="50">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:J7" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4852,47 +4852,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="B3:D9" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4918,11 +4918,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5561,13 +5561,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5785,10 +5785,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5970,15 +5970,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5991,7 +5991,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6063,13 +6063,15 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>monster_ref!$B$4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="F2" s="51"/>
       <c r="G2" s="48">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\만두~\게임 프로젝트\4) 2023.10 ~ 2023.12 인턴 프로젝트\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABABE8-48B5-4683-97E9-ED41F730A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E2B4BB-9869-43FC-A0D3-2BFF543C7768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="1800" windowWidth="23256" windowHeight="12576" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="7788" yWindow="1476" windowWidth="34872" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="222">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -744,22 +744,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주술사에 의해 영원한 안식에 들지 못하고 말단 병사로 부려지는 몬스터. 몬스터들 중에 최약체로 꼽힌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톤피스트가 얼음원소와 결합해 탄생한 정예 몬스터. 얼음과 바위가 결합해 더욱 단단한 주먹과 외피를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유난히 단단한 바위에서 탄생하는 바위형 몬스터. 온몸을 구성하는 바위 덕분에 방어에 특화되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크고 날카로운 낫을 주무기로 삼는 정예 몬스터. 특유의 날렵함을 바탕으로한 강력한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>reward-coin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -872,7 +856,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모든 몬스터들의 위에 군림하는 왕.      파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을 가졌다.</t>
+    <t>monsterImage/monster_skelleton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_grime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_golem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_stonefeast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크고 날카로운 낫을 주무기로 삼는 정예 몬스터. \n특유의 날렵함을 바탕으로한 강력한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주술사에 의해 영원한 안식에 들지 못하고 말단 병사로 부려지는\n몬스터.\n몬스터들 중에 최약체로 꼽힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유난히 단단한 바위에서\n탄생하는 바위형 몬스터. \n온몸을 구성하는 바위 덕분에 방어에 특화되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 몬스터들의 위에\n군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톤피스트가 얼음원소와\n결합해 탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한 주먹과 외피를 가진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,9 +1603,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,10 +1618,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,6 +1633,10 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2299,9 +2320,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -4629,7 +4647,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="몬스터"/>
@@ -4824,21 +4842,21 @@
     <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="50">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:J7" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4852,47 +4870,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B3:D9" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4918,11 +4936,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5262,21 +5280,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -5290,7 +5308,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5304,7 +5322,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>3</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -5318,7 +5336,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -5332,7 +5350,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -5346,7 +5364,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>6</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -5360,7 +5378,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -5374,7 +5392,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>8</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -5388,7 +5406,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>9</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -5402,7 +5420,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B12" s="50">
+      <c r="B12" s="49">
         <v>10</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -5416,7 +5434,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -5430,7 +5448,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B14" s="50">
+      <c r="B14" s="49">
         <v>12</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -5444,7 +5462,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B15" s="50">
+      <c r="B15" s="49">
         <v>13</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -5458,21 +5476,21 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B16" s="50">
+      <c r="B16" s="49">
         <v>14</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B17" s="50">
+      <c r="B17" s="49">
         <v>15</v>
       </c>
       <c r="C17" s="28" t="s">
@@ -5486,7 +5504,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B18" s="50">
+      <c r="B18" s="49">
         <v>16</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -5500,7 +5518,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -5514,7 +5532,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B20" s="50">
+      <c r="B20" s="49">
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -5561,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5693,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5750,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5802,10 +5820,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5843,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5970,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5991,7 +6009,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6001,11 +6019,12 @@
     <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
     <col min="13" max="13" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="147.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6048,10 +6067,10 @@
         <v>139</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -6072,8 +6091,8 @@
       <c r="E2" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50">
         <v>0</v>
       </c>
       <c r="H2" s="11">
@@ -6086,10 +6105,10 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -6111,8 +6130,8 @@
         <f>표3[[#This Row],[name]]</f>
         <v>스톤피스트</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="48">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50">
         <v>2</v>
       </c>
       <c r="H3" s="11">
@@ -6122,15 +6141,15 @@
         <v>110</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="N3" s="52" t="s">
         <v>211</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -6149,8 +6168,8 @@
         <v>아이스골렘</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="48">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50">
         <v>0</v>
       </c>
       <c r="H4" s="11">
@@ -6165,10 +6184,10 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -6190,8 +6209,8 @@
         <f>표3[[#This Row],[name]]</f>
         <v>그림 리퍼</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="48">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50">
         <v>2</v>
       </c>
       <c r="H5" s="11">
@@ -6206,10 +6225,10 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -6231,11 +6250,11 @@
         <f>monster_Data!B3</f>
         <v>스톤피스트</v>
       </c>
-      <c r="F6" s="51" t="str">
+      <c r="F6" s="50" t="str">
         <f>표3[[#This Row],[name]]</f>
         <v>파괴자 모로스</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="50">
         <v>0</v>
       </c>
       <c r="H6" s="11">
@@ -6248,10 +6267,10 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -6281,7 +6300,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6292,7 +6311,7 @@
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
@@ -6346,7 +6365,7 @@
         <v>스켈레톤</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I7</f>
@@ -6364,10 +6383,12 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>10</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6379,7 +6400,7 @@
         <v>스톤피스트</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>114</v>
@@ -6396,10 +6417,12 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>13</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6411,7 +6434,7 @@
         <v>아이스골렘</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>114</v>
@@ -6428,10 +6451,12 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>20</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6443,7 +6468,7 @@
         <v>그림 리퍼</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>114</v>
@@ -6460,10 +6485,12 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>20</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6475,7 +6502,7 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>114</v>
@@ -6492,10 +6519,12 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>30</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6507,7 +6536,7 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>114</v>
@@ -6524,10 +6553,12 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>30</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6624,7 +6655,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>ID_code!I8</f>
@@ -6729,10 +6760,10 @@
         <v>3521</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D7" s="28" t="str">
         <f>ID_code!I9</f>
@@ -6758,10 +6789,10 @@
         <v>3522</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>ID_code!I9</f>
@@ -6787,10 +6818,10 @@
         <v>3523</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D9" s="28" t="str">
         <f>ID_code!I9</f>
@@ -6905,25 +6936,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="G2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
@@ -7081,7 +7112,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1">
         <v>25</v>
@@ -7120,7 +7151,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -7148,10 +7179,10 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="21" t="s">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E2B4BB-9869-43FC-A0D3-2BFF543C7768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB25D0-CAB0-4DF6-9018-48725DBA1F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="1476" windowWidth="34872" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="8988" yWindow="1344" windowWidth="34872" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="222">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1618,10 +1618,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1633,10 +1633,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2319,6 +2315,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4842,21 +4842,21 @@
     <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="50">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:J7" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4870,47 +4870,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="B3:D9" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4936,11 +4936,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5579,13 +5579,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5803,10 +5803,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6009,7 +6009,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6082,15 +6082,13 @@
       </c>
       <c r="C2" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>monster_ref!$B$4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>182</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB25D0-CAB0-4DF6-9018-48725DBA1F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68339E66-A636-4ECA-9E23-69B9CD05E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8988" yWindow="1344" windowWidth="34872" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="1308" yWindow="1416" windowWidth="24336" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -1615,13 +1615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5579,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5803,10 +5803,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5820,10 +5820,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5861,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5988,6 +5988,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -5995,8 +5997,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6009,7 +6009,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\만두~\게임 프로젝트\4) 2023.10 ~ 2023.12 인턴 프로젝트\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68339E66-A636-4ECA-9E23-69B9CD05E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92840FF7-79C2-42C4-938D-56646CAD27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1416" windowWidth="24336" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="30612" yWindow="1800" windowWidth="23256" windowHeight="12576" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -1615,10 +1615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1633,6 +1633,10 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2315,10 +2319,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4647,7 +4647,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="몬스터"/>
@@ -4839,24 +4839,24 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="52"/>
     <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="0">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:J7" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4870,47 +4870,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B3:D9" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4936,11 +4936,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5579,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5820,10 +5820,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5861,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6009,7 +6009,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68339E66-A636-4ECA-9E23-69B9CD05E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9AAB35-F1AA-417D-A1C4-3839649B78DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="1416" windowWidth="24336" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -1615,10 +1615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5579,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5820,10 +5820,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5861,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6009,7 +6009,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9AAB35-F1AA-417D-A1C4-3839649B78DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3190E6-AA0D-4EC1-B1AA-7216BFD27C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="1416" windowWidth="24336" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="222">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1615,10 +1615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5579,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5820,10 +5820,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5861,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6009,7 +6009,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6124,9 +6124,8 @@
         <f>monster_ref!B4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E3" s="11" t="str">
-        <f>표3[[#This Row],[name]]</f>
-        <v>스톤피스트</v>
+      <c r="E3" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50">
@@ -6161,9 +6160,8 @@
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="str">
-        <f>표3[[#This Row],[name]]</f>
-        <v>아이스골렘</v>
+      <c r="D4" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="50"/>
@@ -6203,9 +6201,8 @@
         <f>monster_Data!B2</f>
         <v>스켈레톤</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>표3[[#This Row],[name]]</f>
-        <v>그림 리퍼</v>
+      <c r="E5" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50">
@@ -6245,12 +6242,12 @@
         <v>스켈레톤</v>
       </c>
       <c r="E6" s="11" t="str">
-        <f>monster_Data!B3</f>
-        <v>스톤피스트</v>
+        <f>monster_Data!B2</f>
+        <v>스켈레톤</v>
       </c>
       <c r="F6" s="50" t="str">
-        <f>표3[[#This Row],[name]]</f>
-        <v>파괴자 모로스</v>
+        <f>monster_Data!B2</f>
+        <v>스켈레톤</v>
       </c>
       <c r="G6" s="50">
         <v>0</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3190E6-AA0D-4EC1-B1AA-7216BFD27C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F241D-8D08-4CAA-A96B-A641293E7C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1416" windowWidth="24336" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="222">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -832,26 +832,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>얼떨결에 용사의 길을 걷게된 당신. 두려운 마음이 크지만 용기를 내 여정을 떠나기로 결심합니다. 결심한지 얼마 지나지 않아 몬스터를 마주치게 되는데..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫 전투에서 승리하고 성을 향해 다시 나아갑니다. 하지만 성까지 가는 길에는 수많은 몬스터들이 당신을 기다리고 있었습니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>겨우 도착한 목적지에 보이는 것은 굳게 닫힌 문과 이를 지키는 강력한 몬스터입니다. 이전과 다른 분위기에 긴장되지만 왠지 이길 수 있을 것만 같다는 생각이 듭니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무사히 성 안에 들어온 당신. 성 안은 어둡고 적막만이 가득합니다. 빨리 전쟁을 끝내기 위해 보스를 찾아보지만 그 길목에서 마주친건 또다른 몬스터 무리였습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이제는 정말 모든 것을 끝낼 시간입니다. 주사위와 함께 강해진 당신은 보스를 마주해도 더 이상 두렵지 않습니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>힘겨운 전진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -880,19 +860,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주술사에 의해 영원한 안식에 들지 못하고 말단 병사로 부려지는\n몬스터.\n몬스터들 중에 최약체로 꼽힌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유난히 단단한 바위에서\n탄생하는 바위형 몬스터. \n온몸을 구성하는 바위 덕분에 방어에 특화되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 몬스터들의 위에\n군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스톤피스트가 얼음원소와\n결합해 탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한 주먹과 외피를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n주술사에 의해 영원한 안식에 들지\n못하고 말단 병사로 부려지는 몬스터.\n몬스터들 중에 최약체로 꼽힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n유난히 단단한 바위에서 탄생하는\n바위형 몬스터. \n온몸을 구성하는 바위 덕분에 방어에\n특화되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼떨결에 용사의 길을 걷게된 당신.\n두려운 마음이 크지만 용기를 내 여정을 떠나기로 결심합니다.\n결심한지 얼마 지나지 않아 몬스터를 마주치게 되는데..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무사히 성 안에 들어온 당신.\n성 안은 어둡고 적막만이 가득합니다.\n빨리 전쟁을 끝내기 위해 보스를 찾아보지만 그 길목에서 마주친건 또다른 몬스터 무리였습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이제는 정말 모든 것을 끝낼 시간입니다.\n주사위와 함께 강해진 당신은 보스를 마주해도 더 이상 두렵지 않습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨우 도착한 목적지에 보이는 것은 굳게 닫힌 문과 이를 지키는 강력한 몬스터입니다.\n이전과 다른 분위기에 긴장되지만 왠지 이길 수 있을 것만 같다는 생각이 듭니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫 전투에서 승리하고 성을 향해 다시 나아갑니다.\n하지만 성까지 가는 길에는 수많은 몬스터들이 당신을 기다리고 있었습니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1615,10 +1615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5579,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5820,10 +5820,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5861,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,8 +6008,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6084,9 +6084,8 @@
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="str">
-        <f>monster_ref!$B$4</f>
-        <v>스켈레톤</v>
+      <c r="D2" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="50"/>
@@ -6106,7 +6105,7 @@
         <v>201</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -6143,10 +6142,10 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -6183,7 +6182,7 @@
         <v>202</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -6223,7 +6222,7 @@
         <v>204</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -6265,7 +6264,7 @@
         <v>205</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -6295,7 +6294,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6379,11 +6378,11 @@
         <v>10</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6413,11 +6412,11 @@
         <v>13</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6447,11 +6446,11 @@
         <v>20</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6481,11 +6480,11 @@
         <v>20</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6515,11 +6514,11 @@
         <v>30</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
@@ -6549,11 +6548,11 @@
         <v>30</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F241D-8D08-4CAA-A96B-A641293E7C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921238CF-D88F-46E6-9ED1-766130FEF6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="222">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1618,10 +1618,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5579,13 +5579,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5803,10 +5803,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,8 +6008,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6119,9 +6119,8 @@
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="str">
-        <f>monster_ref!B4</f>
-        <v>스켈레톤</v>
+      <c r="D3" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>180</v>
@@ -6196,9 +6195,8 @@
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="str">
-        <f>monster_Data!B2</f>
-        <v>스켈레톤</v>
+      <c r="D5" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>180</v>
@@ -6236,9 +6234,8 @@
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="str">
-        <f>monster_Data!B2</f>
-        <v>스켈레톤</v>
+      <c r="D6" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E6" s="11" t="str">
         <f>monster_Data!B2</f>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921238CF-D88F-46E6-9ED1-766130FEF6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16524782-F161-4DB7-AC03-3DC838B6D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="1530" yWindow="2160" windowWidth="36150" windowHeight="18210" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="222">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -856,18 +856,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>크고 날카로운 낫을 주무기로 삼는 정예 몬스터. \n특유의 날렵함을 바탕으로한 강력한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 몬스터들의 위에\n군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톤피스트가 얼음원소와\n결합해 탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한 주먹과 외피를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\n주술사에 의해 영원한 안식에 들지\n못하고 말단 병사로 부려지는 몬스터.\n몬스터들 중에 최약체로 꼽힌다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -893,6 +881,18 @@
   </si>
   <si>
     <t xml:space="preserve">첫 전투에서 승리하고 성을 향해 다시 나아갑니다.\n하지만 성까지 가는 길에는 수많은 몬스터들이 당신을 기다리고 있었습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n스톤피스트가 얼음원소와\n결합해 탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한 주먹과 외피를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n크고 날카로운 낫을 주무기로 삼는 정예 몬스터. \n특유의 날렵함을 바탕으로한 강한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n모든 몬스터들의 위에 군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,16 +1615,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5270,16 +5273,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="48" t="s">
         <v>35</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="49">
         <v>3</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="49">
         <v>4</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="49">
         <v>5</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="49">
         <v>6</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="49">
         <v>7</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="49">
         <v>8</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="49">
         <v>9</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="49">
         <v>10</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="49">
         <v>11</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="49">
         <v>12</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="49">
         <v>13</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="49">
         <v>15</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="49">
         <v>16</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="49">
         <v>17</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="49">
         <v>18</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -5568,43 +5571,43 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-    </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="52" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>34</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -5710,11 +5713,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5730,7 +5733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="36" t="s">
         <v>29</v>
       </c>
@@ -5748,7 +5751,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
@@ -5760,7 +5763,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5768,13 +5771,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
@@ -5790,7 +5793,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -5802,17 +5805,17 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="53" t="s">
+    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
@@ -5820,15 +5823,15 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36" t="s">
         <v>59</v>
       </c>
@@ -5846,7 +5849,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -5860,11 +5863,11 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="52" t="s">
+    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5876,7 +5879,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="36" t="s">
         <v>29</v>
       </c>
@@ -5894,7 +5897,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
@@ -5912,7 +5915,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
@@ -5930,7 +5933,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
@@ -5948,7 +5951,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -5962,7 +5965,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -5976,7 +5979,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -5988,6 +5991,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -5995,8 +6000,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,28 +6011,28 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" customWidth="1"/>
-    <col min="13" max="13" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="147.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="147.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>131</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6105,10 +6108,10 @@
         <v>201</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>180</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50">
@@ -6133,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="46">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>198</v>
@@ -6144,10 +6147,10 @@
         <v>206</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -6159,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="50"/>
@@ -6170,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="46">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>145</v>
@@ -6181,10 +6184,10 @@
         <v>202</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>180</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50">
@@ -6209,7 +6212,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="46">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>146</v>
@@ -6220,10 +6223,10 @@
         <v>204</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -6237,13 +6240,11 @@
       <c r="D6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>monster_Data!B2</f>
-        <v>스켈레톤</v>
-      </c>
-      <c r="F6" s="50" t="str">
-        <f>monster_Data!B2</f>
-        <v>스켈레톤</v>
+      <c r="E6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>197</v>
       </c>
       <c r="G6" s="50">
         <v>0</v>
@@ -6251,8 +6252,8 @@
       <c r="H6" s="11">
         <v>4</v>
       </c>
-      <c r="I6" s="46">
-        <v>160</v>
+      <c r="I6" s="56">
+        <v>200</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="11"/>
@@ -6261,16 +6262,16 @@
         <v>205</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I12" s="45"/>
     </row>
   </sheetData>
@@ -6278,6 +6279,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J3:J5" numberStoredAsText="1"/>
+    <ignoredError sqref="F6" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6291,31 +6293,31 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" customWidth="1"/>
+    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.8984375" customWidth="1"/>
+    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.875" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>2110</v>
       </c>
@@ -6379,10 +6381,10 @@
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2111</v>
       </c>
@@ -6413,10 +6415,10 @@
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2212</v>
       </c>
@@ -6436,21 +6438,21 @@
       </c>
       <c r="F4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>2213</v>
       </c>
@@ -6470,21 +6472,21 @@
       </c>
       <c r="F5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>209</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>2314</v>
       </c>
@@ -6504,21 +6506,21 @@
       </c>
       <c r="F6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>208</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>2315</v>
       </c>
@@ -6538,18 +6540,18 @@
       </c>
       <c r="F7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>208</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6570,20 +6572,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
@@ -6638,7 +6640,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
@@ -6665,7 +6667,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
@@ -6692,7 +6694,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
@@ -6719,7 +6721,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
@@ -6746,7 +6748,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
@@ -6775,7 +6777,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
@@ -6804,7 +6806,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
@@ -6833,7 +6835,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -6843,7 +6845,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -6853,37 +6855,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6902,31 +6904,31 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
@@ -6947,7 +6949,7 @@
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>119</v>
       </c>
@@ -6991,7 +6993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>180</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>182</v>
       </c>
@@ -7052,7 +7054,7 @@
       </c>
       <c r="J5" s="24">
         <f>C6</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>94</v>
@@ -7065,15 +7067,15 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>181</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="10" t="s">
@@ -7088,7 +7090,7 @@
       </c>
       <c r="J6" s="1">
         <f>D6</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>84</v>
@@ -7101,15 +7103,15 @@
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>85</v>
@@ -7140,21 +7142,21 @@
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
@@ -7169,13 +7171,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="55" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="55"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>119</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>180</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>182</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>181</v>
       </c>
@@ -7207,7 +7209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>
@@ -7218,7 +7220,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
@@ -7227,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="str">
         <f>B9</f>
         <v>파괴자 모로스</v>
@@ -7236,7 +7238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>25</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>91</v>
       </c>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16524782-F161-4DB7-AC03-3DC838B6D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26EE5A-8C39-490F-B97E-961B5638D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2160" windowWidth="36150" windowHeight="18210" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,19 +1615,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5273,16 +5270,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="48" t="s">
         <v>35</v>
       </c>
@@ -5296,7 +5293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -5324,7 +5321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B5" s="49">
         <v>3</v>
       </c>
@@ -5338,7 +5335,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B6" s="49">
         <v>4</v>
       </c>
@@ -5352,7 +5349,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B7" s="49">
         <v>5</v>
       </c>
@@ -5366,7 +5363,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B8" s="49">
         <v>6</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B9" s="49">
         <v>7</v>
       </c>
@@ -5394,7 +5391,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B10" s="49">
         <v>8</v>
       </c>
@@ -5408,7 +5405,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B11" s="49">
         <v>9</v>
       </c>
@@ -5422,7 +5419,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B12" s="49">
         <v>10</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B13" s="49">
         <v>11</v>
       </c>
@@ -5450,7 +5447,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B14" s="49">
         <v>12</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B15" s="49">
         <v>13</v>
       </c>
@@ -5478,7 +5475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -5492,7 +5489,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B17" s="49">
         <v>15</v>
       </c>
@@ -5506,7 +5503,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B18" s="49">
         <v>16</v>
       </c>
@@ -5520,7 +5517,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B19" s="49">
         <v>17</v>
       </c>
@@ -5534,7 +5531,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B20" s="49">
         <v>18</v>
       </c>
@@ -5548,7 +5545,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -5571,43 +5568,43 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+    <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -5713,11 +5710,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5733,7 +5730,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="36" t="s">
         <v>29</v>
       </c>
@@ -5751,7 +5748,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
@@ -5763,7 +5760,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -5771,13 +5768,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
@@ -5793,7 +5790,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -5805,7 +5802,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="54" t="s">
         <v>58</v>
       </c>
@@ -5815,7 +5812,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
@@ -5823,15 +5820,15 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="36" t="s">
         <v>59</v>
       </c>
@@ -5849,7 +5846,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -5863,11 +5860,11 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -5879,7 +5876,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="36" t="s">
         <v>29</v>
       </c>
@@ -5897,7 +5894,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
@@ -5915,7 +5912,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
@@ -5933,7 +5930,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
@@ -5951,7 +5948,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -5965,7 +5962,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -5979,7 +5976,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -5991,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6012,27 +6009,27 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="147.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
+    <col min="13" max="13" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="147.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>131</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6111,7 +6108,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>180</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50">
@@ -6150,7 +6147,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -6162,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="50"/>
@@ -6187,7 +6184,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -6202,7 +6199,7 @@
         <v>180</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50">
@@ -6226,7 +6223,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -6241,10 +6238,10 @@
         <v>180</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G6" s="50">
         <v>0</v>
@@ -6252,7 +6249,7 @@
       <c r="H6" s="11">
         <v>4</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="11">
         <v>200</v>
       </c>
       <c r="J6" s="46"/>
@@ -6265,13 +6262,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
       <c r="I12" s="45"/>
     </row>
   </sheetData>
@@ -6296,28 +6293,28 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.8984375" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>2110</v>
       </c>
@@ -6384,7 +6381,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>2111</v>
       </c>
@@ -6418,7 +6415,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>2212</v>
       </c>
@@ -6452,7 +6449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>2213</v>
       </c>
@@ -6486,7 +6483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>2314</v>
       </c>
@@ -6520,7 +6517,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>2315</v>
       </c>
@@ -6572,20 +6569,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
@@ -6617,7 +6614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
@@ -6640,7 +6637,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
@@ -6667,7 +6664,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
@@ -6694,7 +6691,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
@@ -6721,7 +6718,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
@@ -6748,7 +6745,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
@@ -6777,7 +6774,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
@@ -6806,7 +6803,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
@@ -6835,7 +6832,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -6845,7 +6842,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="30"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -6855,37 +6852,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6908,27 +6905,27 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
@@ -6949,7 +6946,7 @@
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>119</v>
       </c>
@@ -6993,7 +6990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>180</v>
       </c>
@@ -7029,7 +7026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>182</v>
       </c>
@@ -7067,7 +7064,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>181</v>
       </c>
@@ -7103,7 +7100,7 @@
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>185</v>
       </c>
@@ -7142,7 +7139,7 @@
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>197</v>
       </c>
@@ -7156,7 +7153,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="25" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
@@ -7171,13 +7168,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="55" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="55"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="21" t="s">
         <v>119</v>
       </c>
@@ -7185,7 +7182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>180</v>
       </c>
@@ -7193,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>182</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>181</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>
@@ -7220,7 +7217,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
@@ -7229,7 +7226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="25" t="str">
         <f>B9</f>
         <v>파괴자 모로스</v>
@@ -7238,7 +7235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -7258,7 +7255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>25</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>91</v>
       </c>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26EE5A-8C39-490F-B97E-961B5638D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAB07F-5B54-4331-9230-630CE09E0F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="38910" yWindow="1845" windowWidth="36150" windowHeight="18210" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최종보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정예1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -888,11 +884,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\n크고 날카로운 낫을 주무기로 삼는 정예 몬스터. \n특유의 날렵함을 바탕으로한 강한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\n모든 몬스터들의 위에 군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n크고 날카로운 낫을 주무기로 삼는\n정예 몬스터. \n특유의 날렵함을 바탕으로한 강한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종보스(보류)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1618,10 +1618,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4905,8 +4905,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B3:D9" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
@@ -5270,282 +5270,282 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="49">
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="49">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="49">
         <v>3</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="49">
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="49">
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="49">
         <v>6</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="49">
         <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="49">
         <v>8</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="49">
         <v>9</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="49">
         <v>10</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="49">
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="49">
         <v>12</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="49">
         <v>13</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="E15" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="49">
         <v>14</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="49">
         <v>15</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>148</v>
-      </c>
       <c r="E17" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="49">
         <v>16</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="49">
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="E19" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="49">
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -5568,67 +5568,67 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="18"/>
       <c r="E4" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="18"/>
       <c r="H4" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="52"/>
     </row>
-    <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -5642,15 +5642,15 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="19">
         <v>2</v>
@@ -5664,82 +5664,82 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="20">
         <v>3</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="35">
         <v>12</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="35">
         <v>13</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="35">
         <v>14</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="38">
         <v>15</v>
@@ -5748,9 +5748,9 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -5760,98 +5760,98 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19">
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="20">
         <v>3</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="37">
         <v>24</v>
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="54"/>
+    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="53"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="37">
         <v>7</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="13">
         <v>16</v>
@@ -5860,14 +5860,14 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="19">
         <v>17</v>
@@ -5876,16 +5876,16 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="19">
         <v>18</v>
@@ -5894,16 +5894,16 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="19">
         <v>19</v>
@@ -5912,16 +5912,16 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="19">
         <v>5</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="19">
         <v>20</v>
@@ -5930,16 +5930,16 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="20">
         <v>6</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="19">
         <v>21</v>
@@ -5948,12 +5948,12 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="19">
         <v>22</v>
@@ -5962,12 +5962,12 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="20">
         <v>23</v>
@@ -5976,7 +5976,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -5988,15 +5988,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,72 +6008,72 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" customWidth="1"/>
-    <col min="13" max="13" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="147.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="147.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="C1" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>142</v>
-      </c>
       <c r="G1" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K1" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="47" t="s">
-        <v>139</v>
-      </c>
       <c r="M1" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="50"/>
@@ -6102,28 +6102,28 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50">
@@ -6136,23 +6136,23 @@
         <v>120</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
@@ -6173,33 +6173,33 @@
         <v>140</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50">
@@ -6212,36 +6212,36 @@
         <v>160</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="11">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G6" s="50">
         <v>0</v>
@@ -6256,19 +6256,19 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I12" s="45"/>
     </row>
   </sheetData>
@@ -6289,64 +6289,64 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" customWidth="1"/>
+    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.8984375" customWidth="1"/>
+    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.875" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="J1" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>2110</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>스켈레톤</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I7</f>
@@ -6374,14 +6374,14 @@
         <v>10</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2111</v>
       </c>
@@ -6390,10 +6390,10 @@
         <v>스톤피스트</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6408,14 +6408,14 @@
         <v>13</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2212</v>
       </c>
@@ -6424,10 +6424,10 @@
         <v>아이스골렘</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6442,14 +6442,14 @@
         <v>17</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>2213</v>
       </c>
@@ -6458,10 +6458,10 @@
         <v>그림 리퍼</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6469,21 +6469,21 @@
       </c>
       <c r="F5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>2314</v>
       </c>
@@ -6492,10 +6492,10 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6503,21 +6503,21 @@
       </c>
       <c r="F6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>2315</v>
       </c>
@@ -6526,10 +6526,10 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6537,18 +6537,18 @@
       </c>
       <c r="F7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6566,70 +6566,70 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I10</f>
         <v>C</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -6637,22 +6637,22 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="18">
         <v>15</v>
@@ -6664,22 +6664,22 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="18">
         <v>30</v>
@@ -6691,22 +6691,22 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="18">
         <v>30</v>
@@ -6718,22 +6718,22 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="18">
         <v>20</v>
@@ -6745,22 +6745,22 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="28" t="str">
         <f>ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="18">
         <v>15</v>
@@ -6774,22 +6774,22 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="18">
         <v>20</v>
@@ -6803,22 +6803,22 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="28" t="str">
         <f>ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="18">
         <v>25</v>
@@ -6832,7 +6832,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -6842,7 +6842,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -6852,37 +6852,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6902,38 +6902,38 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="G2" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
@@ -6946,21 +6946,21 @@
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -6990,9 +6990,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -7005,30 +7005,30 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -7037,36 +7037,36 @@
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="24">
         <f>$C$4</f>
         <v>10</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="24">
         <f>C6</f>
         <v>17</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1">
         <v>17</v>
@@ -7076,45 +7076,45 @@
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1">
         <f>D4</f>
         <v>10</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1">
         <f>D6</f>
         <v>17</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -7139,74 +7139,79 @@
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
       </c>
       <c r="C9" s="26">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D9" s="27">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="55"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>
@@ -7217,7 +7222,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
@@ -7226,7 +7231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="str">
         <f>B9</f>
         <v>파괴자 모로스</v>
@@ -7235,29 +7240,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>88</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>89</v>
       </c>
-      <c r="F37" t="s">
-        <v>90</v>
-      </c>
       <c r="G37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7277,9 +7282,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>2</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAB07F-5B54-4331-9230-630CE09E0F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7E693-E93C-49FD-AFAB-EC62BC566ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38910" yWindow="1845" windowWidth="36150" windowHeight="18210" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="38985" yWindow="2790" windowWidth="27150" windowHeight="18210" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -880,19 +880,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\n스톤피스트가 얼음원소와\n결합해 탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한 주먹과 외피를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>\n모든 몬스터들의 위에 군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\n크고 날카로운 낫을 주무기로 삼는\n정예 몬스터. \n특유의 날렵함을 바탕으로한 강한 공격 덕분에 보스 바로 다음의 지위를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최종보스(보류)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n스톤피스트가 얼음원소와 결합해\n탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한\n주먹과 외피를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n크고 날카로운 낫을 주무기로 삼는\n정예 몬스터. \n특유의 날렵함을 바탕으로한\n강한 공격 덕분에 보스 바로 다음의\n지위를 가진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6008,8 +6008,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6289,8 +6289,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6431,22 +6431,22 @@
       </c>
       <c r="E4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="E5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -6499,22 +6499,22 @@
       </c>
       <c r="E6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>207</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -6533,22 +6533,22 @@
       </c>
       <c r="E7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>207</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6566,7 +6566,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6655,7 +6655,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="18">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="42">
@@ -6682,7 +6682,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="42">
@@ -6709,7 +6709,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="42">
@@ -6736,7 +6736,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="18">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="42">
@@ -6763,10 +6763,10 @@
         <v>121</v>
       </c>
       <c r="F7" s="18">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G7" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="42">
         <v>2</v>
@@ -6792,10 +6792,10 @@
         <v>121</v>
       </c>
       <c r="F8" s="18">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G8" s="44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="42">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>121</v>
       </c>
       <c r="F9" s="18">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G9" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="42">
         <v>4</v>
@@ -6902,7 +6902,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="J5" s="24">
         <f>C6</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>93</v>
@@ -7069,10 +7069,10 @@
         <v>180</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="10" t="s">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="J6" s="1">
         <f>D6</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>83</v>
@@ -7124,15 +7124,15 @@
       </c>
       <c r="J7" s="1">
         <f>C15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7" s="1">
         <f>C13+C16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1">
         <f>C13+C14+C17</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
@@ -7144,10 +7144,10 @@
         <v>196</v>
       </c>
       <c r="C8" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>95</v>
@@ -7159,13 +7159,13 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C9" s="26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="27">
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -7208,7 +7208,7 @@
         <v>180</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -7217,7 +7217,7 @@
         <v>그림 리퍼</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
@@ -7228,7 +7228,7 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -7275,11 +7275,11 @@
       </c>
       <c r="F38">
         <f>C13+C16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <f>C13+C14+C17</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7E693-E93C-49FD-AFAB-EC62BC566ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A4448-21EE-47C8-8F62-8DF335407DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38985" yWindow="2790" windowWidth="27150" windowHeight="18210" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="30840" windowHeight="18210" tabRatio="855" activeTab="5" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -1615,13 +1615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5579,30 +5579,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5803,10 +5803,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -5820,10 +5820,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5861,10 +5861,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>39</v>
@@ -5988,6 +5988,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -5995,8 +5997,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,7 +6008,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6503,11 +6503,11 @@
       </c>
       <c r="F6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>207</v>
@@ -6537,11 +6537,11 @@
       </c>
       <c r="F7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>207</v>
@@ -6901,8 +6901,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7144,10 +7144,10 @@
         <v>196</v>
       </c>
       <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
         <v>23</v>
-      </c>
-      <c r="D8" s="7">
-        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>95</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A4448-21EE-47C8-8F62-8DF335407DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E47D5B-15B7-4167-90FB-B2479212FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="30840" windowHeight="18210" tabRatio="855" activeTab="5" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="38895" yWindow="1710" windowWidth="22035" windowHeight="18210" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="268">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -893,6 +893,189 @@
   </si>
   <si>
     <t>\n크고 날카로운 낫을 주무기로 삼는\n정예 몬스터. \n특유의 날렵함을 바탕으로한\n강한 공격 덕분에 보스 바로 다음의\n지위를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage10</t>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니들래빗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>niddle rabbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n토끼를 닮은 귀여운 외형을 지닌 몬스터. 털처럼 보이는 부분은 사실 날카로운 가시라는 사실을 명심하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬살라멘더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salamander</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늪지도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swamp lizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독버섯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poizion mushroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 울프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire wolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이언혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산의 수호자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protector of forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우드골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood golem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐도우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투헤드오크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twohead orc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크쉘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark shell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n평원에 서식하는 액체형 몬스터.\n약하지만 잘 베이지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n어디서나 흔히 볼 수 있는 갈색 늑대.\n특유의 날렵함과 집요함으로 한 번의\n공격으로도 큰 부상을 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n강력한 턱으로 한 번 문 먹잇감은 절대\n놓치지 않는 도마뱀형 몬스터.\n일반 도마뱀과 다르게 뼈로된 갑주가\n몸을 감싸고 있는 형태를 지녔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\n작지만 제빠른 생명체.\n동굴에 서식하며 야간에만 활동한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\n늪에서 서식하는 살라멘더.\n약점인 머리를 보호하기 위해 뼈로된\n단단한 갑주를 쓰고 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n화려하고 귀여운 외형을 지녔지만\n강력한 맹독을 품고 있는 버섯형 몬스터. 몸에 닿기만해도 중독될 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n일반 늑대가 용암의 기운과 결합해\n탄생한 늑대형 몬스터.\n꼬리에는 항상 타오르는 불길이 치솟아 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n수호자 다음으로 강력한 몬스터.\n강철같은 암석으로 된 피부와 뿔을\n지니고 있어 강한 몬스터들도 쉽게 공격하지 못하는 생명체다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n큰 산맥에만 거주하며 그 산의 몬스터들을 수호하는 수호자.\n순진한 얼굴을 하고 있지만, 보호대상이 아닌 생명체에게는 자비없이 강력한\n주먹을 휘두른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n일반 몬스터에 불과하지만 자신보다\n약한 몬스터들을 조종하여 수하로\n부리는 몬스터.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n고목에서 탄생하는 나무형 몬스터.\n고목의 단단함과 묵직함을 특성으로 가져 공격과 방어 모두 탄탄한 특징을\n지닌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n날렵한 외형처럼 날카로운 초승달모양의 칼을 손 대신 사용하는 몬스터.\n항상 날을 날카롭게 관리하여 한 번의\n공격에도 깊은 상처를 낼 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\n오크병사들의 대장으로, 2개의 머리를 가진 오크.\n위협적인 몽둥이로 자신을 가로막는\n적은 모두 부술 수 있는 공격력과\n광범위한 방어력을 모두 지녔다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n사마귀같은 날카로운 앞발을 갖고 있는 악마형 몬스터. 끔찍한 외형으로 우선\n적을 압도하고 앞발로 무자비하게 베어버리는 공격이 주된 공격방식이다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,13 +1798,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4814,8 +5000,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:N6" totalsRowShown="0" headerRowDxfId="56">
-  <autoFilter ref="A1:N6" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:N11" totalsRowShown="0" headerRowDxfId="56">
+  <autoFilter ref="A1:N11" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4856,8 +5042,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J7" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:J7" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:J22" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5579,13 +5765,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5988,8 +6174,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -5997,6 +6181,8 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,8 +6194,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6256,17 +6442,130 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I10" s="45"/>
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I11" s="45"/>
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="11">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I12" s="45"/>
@@ -6287,10 +6586,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77CDD5-EF19-4B69-A17C-54DA94699AEA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6303,7 +6602,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="131.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="169.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
@@ -6348,7 +6647,7 @@
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
-        <v>2110</v>
+        <v>1</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>monster_ref!B4</f>
@@ -6383,7 +6682,7 @@
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
-        <v>2111</v>
+        <v>2</v>
       </c>
       <c r="B3" s="18" t="str">
         <f>monster_ref!B5</f>
@@ -6417,7 +6716,7 @@
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
-        <v>2212</v>
+        <v>3</v>
       </c>
       <c r="B4" s="18" t="str">
         <f>monster_ref!B6</f>
@@ -6451,7 +6750,7 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
-        <v>2213</v>
+        <v>4</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>monster_ref!B7</f>
@@ -6485,7 +6784,7 @@
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
-        <v>2314</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>monster_ref!B8</f>
@@ -6519,7 +6818,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
-        <v>2315</v>
+        <v>6</v>
       </c>
       <c r="B7" s="18" t="str">
         <f>monster_ref!B9</f>
@@ -6549,6 +6848,336 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +7530,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -6926,25 +7555,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="G2" s="55" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
@@ -7174,10 +7803,10 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E47D5B-15B7-4167-90FB-B2479212FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4524CDDE-CB8B-423C-948F-A38902C966F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38895" yWindow="1710" windowWidth="22035" windowHeight="18210" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="3405" yWindow="855" windowWidth="34995" windowHeight="20745" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="331">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>다시던지기</t>
-  </si>
-  <si>
-    <t>다시던지기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -808,274 +805,474 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>stage_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_skelleton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_grime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_golem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_stonefeast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n주술사에 의해 영원한 안식에 들지\n못하고 말단 병사로 부려지는 몬스터.\n몬스터들 중에 최약체로 꼽힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n유난히 단단한 바위에서 탄생하는\n바위형 몬스터. \n온몸을 구성하는 바위 덕분에 방어에\n특화되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n모든 몬스터들의 위에 군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종보스(보류)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n스톤피스트가 얼음원소와 결합해\n탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한\n주먹과 외피를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n크고 날카로운 낫을 주무기로 삼는\n정예 몬스터. \n특유의 날렵함을 바탕으로한\n강한 공격 덕분에 보스 바로 다음의\n지위를 가진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage10</t>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니들래빗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>niddle rabbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n토끼를 닮은 귀여운 외형을 지닌 몬스터. 털처럼 보이는 부분은 사실 날카로운 가시라는 사실을 명심하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬살라멘더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salamander</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늪지도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swamp lizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독버섯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poizion mushroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 울프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire wolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이언혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산의 수호자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protector of forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우드골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood golem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐도우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투헤드오크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twohead orc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크쉘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark shell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n평원에 서식하는 액체형 몬스터.\n약하지만 잘 베이지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n어디서나 흔히 볼 수 있는 갈색 늑대.\n특유의 날렵함과 집요함으로 한 번의\n공격으로도 큰 부상을 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n강력한 턱으로 한 번 문 먹잇감은 절대\n놓치지 않는 도마뱀형 몬스터.\n일반 도마뱀과 다르게 뼈로된 갑주가\n몸을 감싸고 있는 형태를 지녔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\n작지만 제빠른 생명체.\n동굴에 서식하며 야간에만 활동한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\n늪에서 서식하는 살라멘더.\n약점인 머리를 보호하기 위해 뼈로된\n단단한 갑주를 쓰고 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n화려하고 귀여운 외형을 지녔지만\n강력한 맹독을 품고 있는 버섯형 몬스터. 몸에 닿기만해도 중독될 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n일반 늑대가 용암의 기운과 결합해\n탄생한 늑대형 몬스터.\n꼬리에는 항상 타오르는 불길이 치솟아 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n수호자 다음으로 강력한 몬스터.\n강철같은 암석으로 된 피부와 뿔을\n지니고 있어 강한 몬스터들도 쉽게 공격하지 못하는 생명체다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n큰 산맥에만 거주하며 그 산의 몬스터들을 수호하는 수호자.\n순진한 얼굴을 하고 있지만, 보호대상이 아닌 생명체에게는 자비없이 강력한\n주먹을 휘두른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n일반 몬스터에 불과하지만 자신보다\n약한 몬스터들을 조종하여 수하로\n부리는 몬스터.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n고목에서 탄생하는 나무형 몬스터.\n고목의 단단함과 묵직함을 특성으로 가져 공격과 방어 모두 탄탄한 특징을\n지닌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n날렵한 외형처럼 날카로운 초승달모양의 칼을 손 대신 사용하는 몬스터.\n항상 날을 날카롭게 관리하여 한 번의\n공격에도 깊은 상처를 낼 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\n오크병사들의 대장으로, 2개의 머리를 가진 오크.\n위협적인 몽둥이로 자신을 가로막는\n적은 모두 부술 수 있는 공격력과\n광범위한 방어력을 모두 지녔다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n사마귀같은 날카로운 앞발을 갖고 있는 악마형 몬스터. 끔찍한 외형으로 우선\n적을 압도하고 앞발로 무자비하게 베어버리는 공격이 주된 공격방식이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_slime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_rabbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_wolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_salamander</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_lizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_mushroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_firewolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_ironhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_protector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_woodgolem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_ghost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_shadow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_orc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage11</t>
+  </si>
+  <si>
+    <t>stage12</t>
+  </si>
+  <si>
+    <t>stage13</t>
+  </si>
+  <si>
+    <t>stage14</t>
+  </si>
+  <si>
+    <t>stage15</t>
+  </si>
+  <si>
+    <t>stage16</t>
+  </si>
+  <si>
+    <t>stage17</t>
+  </si>
+  <si>
+    <t>stage18</t>
+  </si>
+  <si>
+    <t>stage19</t>
+  </si>
+  <si>
+    <t>stage20</t>
+  </si>
+  <si>
+    <t>박쥐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독버섯 </t>
+  </si>
+  <si>
+    <t>독버섯</t>
+  </si>
+  <si>
+    <t>파이어 울프</t>
+  </si>
+  <si>
+    <t>아이언혼</t>
+  </si>
+  <si>
+    <t>산의 수호자</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+  </si>
+  <si>
+    <t>스톤피스트</t>
+  </si>
+  <si>
+    <t>아이스골렘</t>
+  </si>
+  <si>
+    <t>슬라임</t>
+  </si>
+  <si>
+    <t>다크쉘</t>
+  </si>
+  <si>
+    <t>파괴자 모로스</t>
+  </si>
+  <si>
+    <t>우드골렘</t>
+  </si>
+  <si>
+    <t>고스트</t>
+  </si>
+  <si>
+    <t>쉐도우</t>
+  </si>
+  <si>
+    <t>투헤드오크</t>
+  </si>
+  <si>
+    <t>그림 리퍼</t>
+  </si>
+  <si>
+    <t>돌아온 모로스</t>
+  </si>
+  <si>
+    <t>시작된 훈련</t>
+  </si>
+  <si>
+    <t>다가올 미래에 왕국을 구하기 위한 훈련이 본격적으로 시작되었습니다.</t>
+  </si>
+  <si>
+    <t>평원에서</t>
+  </si>
+  <si>
+    <t>늑대무리</t>
+  </si>
+  <si>
+    <t>강가에서</t>
+  </si>
+  <si>
+    <t>노력의 성과</t>
+  </si>
+  <si>
+    <t>동굴에서</t>
+  </si>
+  <si>
+    <t>훈련의 끝</t>
+  </si>
+  <si>
+    <t>훌륭하게 훈련을 모두 마쳤습니다. 최종 관문은 이 산맥의 몬스터들을 수호하는 수호자를 처치하는 것입니다.</t>
+  </si>
+  <si>
     <t>성을 향해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼떨결에 용사의 길을 걷게된 당신. 두려운 마음이 크지만 용기를 내 여정을 떠나기로 결심합니다. 결심한지 얼마 지나지 않아 몬스터를 마주치게 되는데..</t>
+  </si>
+  <si>
+    <t>힘겨운 전진</t>
+  </si>
+  <si>
+    <t xml:space="preserve">첫 전투에서 승리하고 성을 향해 다시 나아갑니다. 하지만 성까지 가는 길에는 수많은 몬스터들이 당신을 기다리고 있었습니다. </t>
+  </si>
+  <si>
+    <t>강력한 적</t>
+  </si>
+  <si>
+    <t>비교적 약한 몬스터병사들과 싸웠던 당신. 이번에 마주친 몬스터는 이전까지와 다르게 강력한 힘을 가진 몬스터였습니다.</t>
+  </si>
+  <si>
+    <t>보스와의 조우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이렇게 빨리 몬스터들의 군주를 만나게 될지 몰랐던 당신. 당황스럽지만 오히려 혼란을 빠르게 종결할 좋은 기회라고 생각하고 드디어 왕과의 전투에 돌입합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도망간 모로스를 쫓아 다시 성을 향해 길을 떠납니다. </t>
   </si>
   <si>
     <t>성문을 열어라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨우 도착한 목적지에 보이는 것은 굳게 닫힌 문과 이를 지키는 강력한 몬스터입니다. 이전과 다른 분위기에 긴장되지만 왠지 이길 수 있을 것만 같다는 생각이 듭니다.</t>
   </si>
   <si>
     <t>보스는 어디에</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무사히 성 안에 들어온 당신. 성 안은 어둡고 적막만이 가득합니다. 빨리 전쟁을 끝내기 위해 보스를 찾아보지만 그 길목에서 마주친건 또다른 몬스터 무리였습니다.</t>
   </si>
   <si>
     <t>최후의 전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘겨운 전진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterImage/monster_skelleton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterImage/monster_boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterImage/monster_grime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterImage/monster_golem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterImage/monster_stonefeast</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n주술사에 의해 영원한 안식에 들지\n못하고 말단 병사로 부려지는 몬스터.\n몬스터들 중에 최약체로 꼽힌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n유난히 단단한 바위에서 탄생하는\n바위형 몬스터. \n온몸을 구성하는 바위 덕분에 방어에\n특화되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼떨결에 용사의 길을 걷게된 당신.\n두려운 마음이 크지만 용기를 내 여정을 떠나기로 결심합니다.\n결심한지 얼마 지나지 않아 몬스터를 마주치게 되는데..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무사히 성 안에 들어온 당신.\n성 안은 어둡고 적막만이 가득합니다.\n빨리 전쟁을 끝내기 위해 보스를 찾아보지만 그 길목에서 마주친건 또다른 몬스터 무리였습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이제는 정말 모든 것을 끝낼 시간입니다.\n주사위와 함께 강해진 당신은 보스를 마주해도 더 이상 두렵지 않습니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>겨우 도착한 목적지에 보이는 것은 굳게 닫힌 문과 이를 지키는 강력한 몬스터입니다.\n이전과 다른 분위기에 긴장되지만 왠지 이길 수 있을 것만 같다는 생각이 듭니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫 전투에서 승리하고 성을 향해 다시 나아갑니다.\n하지만 성까지 가는 길에는 수많은 몬스터들이 당신을 기다리고 있었습니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n모든 몬스터들의 위에 군림하는 왕.\n파괴자란 이름에 걸맞게 그 검에 닿는 모든 것을 파괴하는 강력한 힘을\n가졌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종보스(보류)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n스톤피스트가 얼음원소와 결합해\n탄생한 정예 몬스터. \n얼음과 바위가 결합해 더욱 단단한\n주먹과 외피를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n크고 날카로운 낫을 주무기로 삼는\n정예 몬스터. \n특유의 날렵함을 바탕으로한\n강한 공격 덕분에 보스 바로 다음의\n지위를 가진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage10</t>
-  </si>
-  <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>slime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이제는 정말 모든 것을 끝낼 시간입니다. 주사위와 함께 강해진 당신은 이제 보스를 마주해도 더 이상 두렵지 않습니다. </t>
   </si>
   <si>
     <t>니들래빗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>niddle rabbit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n토끼를 닮은 귀여운 외형을 지닌 몬스터. 털처럼 보이는 부분은 사실 날카로운 가시라는 사실을 명심하자.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>늑대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wolf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스컬살라멘더</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salamander</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>늪지도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swamp lizard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박쥐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>독버섯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>poizion mushroom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 울프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire wolf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이언혼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironhorn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산의 수호자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protector of forest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우드골렘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood golem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ghost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉐도우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shadow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투헤드오크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>twohead orc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크쉘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark shell</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n평원에 서식하는 액체형 몬스터.\n약하지만 잘 베이지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n어디서나 흔히 볼 수 있는 갈색 늑대.\n특유의 날렵함과 집요함으로 한 번의\n공격으로도 큰 부상을 입힌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n강력한 턱으로 한 번 문 먹잇감은 절대\n놓치지 않는 도마뱀형 몬스터.\n일반 도마뱀과 다르게 뼈로된 갑주가\n몸을 감싸고 있는 형태를 지녔다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">\n작지만 제빠른 생명체.\n동굴에 서식하며 야간에만 활동한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">\n늪에서 서식하는 살라멘더.\n약점인 머리를 보호하기 위해 뼈로된\n단단한 갑주를 쓰고 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n화려하고 귀여운 외형을 지녔지만\n강력한 맹독을 품고 있는 버섯형 몬스터. 몸에 닿기만해도 중독될 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n일반 늑대가 용암의 기운과 결합해\n탄생한 늑대형 몬스터.\n꼬리에는 항상 타오르는 불길이 치솟아 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n수호자 다음으로 강력한 몬스터.\n강철같은 암석으로 된 피부와 뿔을\n지니고 있어 강한 몬스터들도 쉽게 공격하지 못하는 생명체다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n큰 산맥에만 거주하며 그 산의 몬스터들을 수호하는 수호자.\n순진한 얼굴을 하고 있지만, 보호대상이 아닌 생명체에게는 자비없이 강력한\n주먹을 휘두른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n일반 몬스터에 불과하지만 자신보다\n약한 몬스터들을 조종하여 수하로\n부리는 몬스터.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n고목에서 탄생하는 나무형 몬스터.\n고목의 단단함과 묵직함을 특성으로 가져 공격과 방어 모두 탄탄한 특징을\n지닌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n날렵한 외형처럼 날카로운 초승달모양의 칼을 손 대신 사용하는 몬스터.\n항상 날을 날카롭게 관리하여 한 번의\n공격에도 깊은 상처를 낼 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">\n오크병사들의 대장으로, 2개의 머리를 가진 오크.\n위협적인 몽둥이로 자신을 가로막는\n적은 모두 부술 수 있는 공격력과\n광범위한 방어력을 모두 지녔다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n사마귀같은 날카로운 앞발을 갖고 있는 악마형 몬스터. 끔찍한 외형으로 우선\n적을 압도하고 앞발로 무자비하게 베어버리는 공격이 주된 공격방식이다.</t>
+  </si>
+  <si>
+    <t>(7,11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8,12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9,13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간회귀석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1083,10 +1280,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;monsterImage/monster_&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,8 +1390,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="KBO 다이아고딕 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1450,30 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1633,15 +1886,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1777,28 +2042,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1807,18 +2057,441 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="32" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="20% - 강조색3" xfId="3" builtinId="38"/>
+    <cellStyle name="40% - 강조색2" xfId="2" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="4" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="5" builtinId="43"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2253,87 +2926,11 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2368,7 +2965,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2414,147 +3015,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2722,13 +3182,13 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="데이터테이블스타일" pivot="0" count="3" xr9:uid="{B3EBF722-353D-409F-A4C9-54CDB66DDBC2}">
-      <tableStyleElement type="wholeTable" dxfId="67"/>
-      <tableStyleElement type="firstRowStripe" dxfId="66"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="65"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="표 스타일 1" pivot="0" count="2" xr9:uid="{BE48765A-397C-4010-A2B3-AA04167E1655}">
-      <tableStyleElement type="wholeTable" dxfId="64"/>
-      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="wholeTable" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4982,7 +5442,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}" name="표2" displayName="표2" ref="B2:E20" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}" name="표2" displayName="표2" ref="B2:E20" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="B2:E20" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4990,18 +5450,18 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E37825D9-D100-4FC3-B081-25AECFAE74A7}" name="번호" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{D0DDB258-6A30-40B3-B531-DD8944229BDE}" name="명칭" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{3B28FDFC-804E-43A7-9799-6894E09D6C47}" name="영문명칭" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{42E0662E-1BBB-4CF5-AC08-318CDA4B1079}" name="설명" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{E37825D9-D100-4FC3-B081-25AECFAE74A7}" name="번호" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{D0DDB258-6A30-40B3-B531-DD8944229BDE}" name="명칭" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{3B28FDFC-804E-43A7-9799-6894E09D6C47}" name="영문명칭" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{42E0662E-1BBB-4CF5-AC08-318CDA4B1079}" name="설명" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:N11" totalsRowShown="0" headerRowDxfId="56">
-  <autoFilter ref="A1:N11" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowCellStyle="40% - 강조색3">
+  <autoFilter ref="A1:L21" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5014,35 +5474,31 @@
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="53">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="6" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="16">
       <calculatedColumnFormula>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="50">
+    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="13">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{08CE1504-5F64-4F38-8E02-BA3C4A127ACB}" name="sound" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="2" dataDxfId="55" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:J22" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5056,47 +5512,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="0" totalsRowDxfId="54" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="1" totalsRowDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="22" totalsRowDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="20" totalsRowDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="18" totalsRowDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5122,11 +5578,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5466,269 +5922,269 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="48" t="s">
+    </row>
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="49">
-        <v>1</v>
-      </c>
-      <c r="C3" s="28" t="s">
+    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="46">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="49">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28" t="s">
+    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="49">
-        <v>3</v>
-      </c>
-      <c r="C5" s="28" t="s">
+    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="46">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="49">
-        <v>4</v>
-      </c>
-      <c r="C6" s="28" t="s">
+    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="46">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="46">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="49">
-        <v>5</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="49">
-        <v>6</v>
-      </c>
-      <c r="C8" s="28" t="s">
+    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="46">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D9" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="49">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28" t="s">
+    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="46">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D10" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="49">
-        <v>8</v>
-      </c>
-      <c r="C10" s="28" t="s">
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="46">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="49">
-        <v>9</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>10</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="46">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="46">
+        <v>12</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="46">
+        <v>13</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="46">
+        <v>14</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="46">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="46">
+        <v>16</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="46">
+        <v>17</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="46">
+        <v>18</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="49">
-        <v>11</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="49">
-        <v>12</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="49">
-        <v>13</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="49">
-        <v>14</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="49">
-        <v>15</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="49">
-        <v>16</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="49">
-        <v>17</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="49">
-        <v>18</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="E20" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -5765,30 +6221,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="53"/>
+      <c r="B4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="53"/>
+      <c r="H4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
@@ -5799,7 +6255,7 @@
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>34</v>
@@ -5809,7 +6265,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -5828,10 +6284,10 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -5850,10 +6306,10 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5872,10 +6328,10 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5890,17 +6346,17 @@
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -5910,10 +6366,10 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5954,10 +6410,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="53"/>
+      <c r="E13" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="48"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5969,7 +6425,7 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>34</v>
@@ -5981,7 +6437,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="37">
         <v>24</v>
@@ -5989,10 +6445,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="54"/>
+      <c r="B16" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6006,24 +6462,24 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="53"/>
+      <c r="E17" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="48"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="37">
         <v>7</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>34</v>
@@ -6037,7 +6493,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="13">
         <v>16</v>
@@ -6047,13 +6503,13 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="53"/>
+      <c r="B20" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="48"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="19">
         <v>17</v>
@@ -6071,7 +6527,7 @@
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="19">
         <v>18</v>
@@ -6089,7 +6545,7 @@
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="19">
         <v>19</v>
@@ -6107,7 +6563,7 @@
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="19">
         <v>20</v>
@@ -6125,7 +6581,7 @@
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="19">
         <v>21</v>
@@ -6139,7 +6595,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="19">
         <v>22</v>
@@ -6153,7 +6609,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="20">
         <v>23</v>
@@ -6174,6 +6630,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -6181,8 +6639,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6192,390 +6648,748 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0146BE-FE1F-46E5-8DD5-DD309DB718F3}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="147.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="G1" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="47" t="s">
+      <c r="H1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="59">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50">
+      <c r="D2" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
-        <v>3</v>
-      </c>
-      <c r="I2" s="46">
+      <c r="H2" s="59">
+        <v>2</v>
+      </c>
+      <c r="I2" s="61">
         <v>100</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="J2" s="62"/>
+      <c r="K2" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="59">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50">
+      <c r="D3" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59">
         <v>2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="61">
+        <v>100</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="63"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="58">
         <v>3</v>
       </c>
-      <c r="I3" s="46">
+      <c r="B4" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="59">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="61">
+        <v>0</v>
+      </c>
+      <c r="H4" s="59">
+        <v>2</v>
+      </c>
+      <c r="I4" s="61">
         <v>120</v>
       </c>
-      <c r="J3" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="J4" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C5" s="59">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50">
+      <c r="D5" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61">
+        <v>1</v>
+      </c>
+      <c r="H5" s="59">
+        <v>2</v>
+      </c>
+      <c r="I5" s="61">
+        <v>120</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="59">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="61">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H6" s="59">
         <v>3</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I6" s="61">
         <v>140</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="J6" s="62"/>
+      <c r="K6" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="58">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="59">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="61">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59">
+        <v>3</v>
+      </c>
+      <c r="I7" s="61">
+        <v>140</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="58">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="59">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50">
+      <c r="D8" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61">
+        <v>0</v>
+      </c>
+      <c r="H8" s="59">
+        <v>3</v>
+      </c>
+      <c r="I8" s="61">
+        <v>160</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="58">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61">
+        <v>1</v>
+      </c>
+      <c r="H9" s="59">
+        <v>4</v>
+      </c>
+      <c r="I9" s="61">
+        <v>160</v>
+      </c>
+      <c r="J9" s="62"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="59">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61">
+        <v>0</v>
+      </c>
+      <c r="H10" s="59">
+        <v>4</v>
+      </c>
+      <c r="I10" s="64">
+        <v>160</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="58">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="59">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61">
+        <v>1</v>
+      </c>
+      <c r="H11" s="59">
+        <v>5</v>
+      </c>
+      <c r="I11" s="64">
+        <v>180</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="58">
+        <v>11</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="60">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="60">
+        <v>5</v>
+      </c>
+      <c r="I12" s="66">
+        <v>180</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="58">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="60">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="H5" s="11">
-        <v>4</v>
-      </c>
-      <c r="I5" s="46">
-        <v>160</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="D13" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65">
+        <v>1</v>
+      </c>
+      <c r="H13" s="60">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="I13" s="65">
+        <v>180</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="60">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65">
+        <v>0</v>
+      </c>
+      <c r="H14" s="60">
+        <v>6</v>
+      </c>
+      <c r="I14" s="65">
+        <v>180</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="58">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="60">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65">
+        <v>1</v>
+      </c>
+      <c r="H15" s="60">
+        <v>6</v>
+      </c>
+      <c r="I15" s="65">
+        <v>200</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="58">
+        <v>15</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="60">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="50">
+      <c r="D16" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="65">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11">
-        <v>200</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="H16" s="60">
+        <v>7</v>
+      </c>
+      <c r="I16" s="65">
+        <v>240</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="58">
+        <v>16</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="60">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="65">
+        <v>1</v>
+      </c>
+      <c r="H17" s="60">
+        <v>7</v>
+      </c>
+      <c r="I17" s="65">
+        <v>240</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="58">
+        <v>17</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="60">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65">
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="H18" s="60">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="I18" s="65">
+        <v>240</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="58">
+        <v>18</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="60">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65">
+        <v>1</v>
+      </c>
+      <c r="H19" s="60">
+        <v>8</v>
+      </c>
+      <c r="I19" s="65">
+        <v>240</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="58">
+        <v>19</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="60">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="65">
         <v>0</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="H20" s="60">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="I20" s="65">
+        <v>240</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="58">
+        <v>20</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="60">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65">
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
-        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+      <c r="H21" s="60">
         <v>0</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="11">
-        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I12" s="45"/>
+      <c r="I21" s="65">
+        <v>280</v>
+      </c>
+      <c r="J21" s="67"/>
+      <c r="K21" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J3:J5" numberStoredAsText="1"/>
-    <ignoredError sqref="F6" calculatedColumn="1"/>
+    <ignoredError sqref="F16:F17 F20 F6:F7 F4" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6588,19 +7402,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="169.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
@@ -6614,47 +7428,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>182</v>
+      <c r="J1" s="56" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="28" t="str">
         <f>monster_ref!B4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>185</v>
+      <c r="C2" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I7</f>
@@ -6672,27 +7486,27 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>206</v>
+      <c r="H2" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="28" t="str">
         <f>monster_ref!B5</f>
         <v>스톤피스트</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>186</v>
+      <c r="C3" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6706,27 +7520,27 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>13</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>210</v>
+      <c r="H3" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="58">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="28" t="str">
         <f>monster_ref!B6</f>
         <v>아이스골렘</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>187</v>
+      <c r="C4" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6740,27 +7554,27 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>19</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>209</v>
+      <c r="H4" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="58">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="28" t="str">
         <f>monster_ref!B7</f>
         <v>그림 리퍼</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>188</v>
+      <c r="C5" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6774,27 +7588,27 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>19</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>208</v>
+      <c r="H5" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="58">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="28" t="str">
         <f>monster_ref!B8</f>
         <v>파괴자 모로스</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>198</v>
+      <c r="C6" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6808,27 +7622,27 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>23</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>207</v>
+      <c r="H6" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="58">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="str">
+      <c r="B7" s="28" t="str">
         <f>monster_ref!B9</f>
         <v>파괴자 모로스</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>198</v>
+      <c r="C7" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -6842,342 +7656,462 @@
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>23</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>207</v>
+      <c r="H7" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="58">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>224</v>
+      <c r="B8" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E8" s="52">
+        <v>1</v>
+      </c>
+      <c r="F8" s="52">
+        <v>10</v>
+      </c>
+      <c r="G8" s="52">
+        <v>10</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>257</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="58">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>226</v>
+      <c r="B9" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E9" s="52">
+        <v>2</v>
+      </c>
+      <c r="F9" s="52">
+        <v>10</v>
+      </c>
+      <c r="G9" s="52">
+        <v>13</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>258</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="58">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>229</v>
+      <c r="B10" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E10" s="52">
+        <v>2</v>
+      </c>
+      <c r="F10" s="52">
+        <v>15</v>
+      </c>
+      <c r="G10" s="52">
+        <v>19</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>259</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="58">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>231</v>
+      <c r="B11" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E11" s="52">
+        <v>4</v>
+      </c>
+      <c r="F11" s="52">
+        <v>21</v>
+      </c>
+      <c r="G11" s="52">
+        <v>19</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>260</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="58">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>233</v>
+      <c r="B12" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E12" s="52">
+        <v>4</v>
+      </c>
+      <c r="F12" s="52">
+        <v>20</v>
+      </c>
+      <c r="G12" s="52">
+        <v>23</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>261</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="58">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>235</v>
+      <c r="B13" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="52">
+        <v>5</v>
+      </c>
+      <c r="F13" s="52">
+        <v>20</v>
+      </c>
+      <c r="G13" s="52">
+        <v>20</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>262</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="58">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>237</v>
+      <c r="B14" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E14" s="52">
+        <v>5</v>
+      </c>
+      <c r="F14" s="52">
+        <v>22</v>
+      </c>
+      <c r="G14" s="52">
+        <v>22</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>263</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="58">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>239</v>
+      <c r="B15" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E15" s="52">
+        <v>6</v>
+      </c>
+      <c r="F15" s="52">
+        <v>25</v>
+      </c>
+      <c r="G15" s="52">
+        <v>25</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>264</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="58">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>241</v>
+      <c r="B16" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E16" s="52">
+        <v>6</v>
+      </c>
+      <c r="F16" s="52">
+        <v>28</v>
+      </c>
+      <c r="G16" s="52">
+        <v>26</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>265</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="58">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>243</v>
+      <c r="B17" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E17" s="52">
+        <v>7</v>
+      </c>
+      <c r="F17" s="52">
+        <v>30</v>
+      </c>
+      <c r="G17" s="52">
+        <v>30</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>266</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="58">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>245</v>
+      <c r="B18" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E18" s="52">
+        <v>9</v>
+      </c>
+      <c r="F18" s="52">
+        <v>48</v>
+      </c>
+      <c r="G18" s="52">
+        <v>48</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>267</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="58">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>247</v>
+      <c r="B19" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E19" s="52">
+        <v>11</v>
+      </c>
+      <c r="F19" s="52">
+        <v>50</v>
+      </c>
+      <c r="G19" s="52">
+        <v>50</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>268</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="58">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>249</v>
+      <c r="B20" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E20" s="52">
+        <v>11</v>
+      </c>
+      <c r="F20" s="52">
+        <v>53</v>
+      </c>
+      <c r="G20" s="52">
+        <v>50</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>269</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="58">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>251</v>
+      <c r="B21" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E21" s="52">
+        <v>9</v>
+      </c>
+      <c r="F21" s="52">
+        <v>37</v>
+      </c>
+      <c r="G21" s="52">
+        <v>37</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>270</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="58">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>253</v>
+      <c r="B22" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="E22" s="52">
+        <v>11</v>
+      </c>
+      <c r="F22" s="52">
+        <v>53</v>
+      </c>
+      <c r="G22" s="52">
+        <v>50</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>269</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +8129,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7213,34 +8147,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -7248,17 +8182,17 @@
         <v>3616</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I10</f>
         <v>C</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -7271,17 +8205,17 @@
         <v>3417</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="18">
         <v>35</v>
@@ -7298,17 +8232,17 @@
         <v>3418</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="18">
         <v>45</v>
@@ -7325,17 +8259,17 @@
         <v>3419</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="18">
         <v>45</v>
@@ -7352,17 +8286,17 @@
         <v>3420</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="28" t="str">
         <f>ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="18">
         <v>60</v>
@@ -7379,17 +8313,17 @@
         <v>3521</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="28" t="str">
         <f>ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="18">
         <v>50</v>
@@ -7408,17 +8342,17 @@
         <v>3522</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="18">
         <v>70</v>
@@ -7437,17 +8371,17 @@
         <v>3523</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="28" t="str">
         <f>ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="18">
         <v>100</v>
@@ -7555,29 +8489,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="G2" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>18</v>
@@ -7621,7 +8555,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -7634,30 +8568,30 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -7666,27 +8600,27 @@
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="24">
         <f>$C$4</f>
         <v>10</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="24">
         <f>C6</f>
         <v>15</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -7695,7 +8629,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -7705,24 +8639,24 @@
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1">
         <f>D4</f>
         <v>10</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1">
         <f>D6</f>
         <v>19</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -7731,7 +8665,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1">
         <v>21</v>
@@ -7740,7 +8674,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>24</v>
@@ -7770,7 +8704,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -7779,7 +8713,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -7794,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -7803,14 +8737,14 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>17</v>
@@ -7818,7 +8752,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -7826,7 +8760,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -7834,7 +8768,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -7871,22 +8805,22 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>87</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>88</v>
       </c>
-      <c r="F37" t="s">
-        <v>89</v>
-      </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -7913,7 +8847,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39">
         <v>2</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4524CDDE-CB8B-423C-948F-A38902C966F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466506A0-24F2-47B1-85F6-BACD46EBD8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="855" windowWidth="34995" windowHeight="20745" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="330">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1125,12 +1125,6 @@
     <t>박쥐</t>
   </si>
   <si>
-    <t xml:space="preserve">독버섯 </t>
-  </si>
-  <si>
-    <t>독버섯</t>
-  </si>
-  <si>
     <t>파이어 울프</t>
   </si>
   <si>
@@ -1273,6 +1267,10 @@
   </si>
   <si>
     <t>시간회귀석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아온 모로스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1282,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;monsterImage/monster_&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2048,18 +2046,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2111,6 +2097,18 @@
     <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 강조색3" xfId="3" builtinId="38"/>
@@ -2121,377 +2119,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2926,11 +2553,88 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2965,11 +2669,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2981,6 +2681,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3015,6 +2716,303 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5460,7 +5458,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowCellStyle="40% - 강조색3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:L21" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5476,29 +5474,29 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="6" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="53" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="51">
       <calculatedColumnFormula>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="48">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="2" dataDxfId="55" headerRowCellStyle="40% - 강조색3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="41" dataDxfId="40" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:J22" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5512,47 +5510,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="0" totalsRowDxfId="54" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="1" totalsRowDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="22" totalsRowDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="20" totalsRowDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="18" totalsRowDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5578,11 +5576,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5912,16 +5910,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="45" t="s">
         <v>34</v>
       </c>
@@ -5935,7 +5933,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -5949,7 +5947,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="19.2">
       <c r="B4" s="46">
         <v>2</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="19.2">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="19.2">
       <c r="B6" s="46">
         <v>4</v>
       </c>
@@ -5991,7 +5989,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="19.2">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -6005,7 +6003,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="19.2">
       <c r="B8" s="46">
         <v>6</v>
       </c>
@@ -6019,7 +6017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="19.2">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -6033,7 +6031,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="19.2">
       <c r="B10" s="46">
         <v>8</v>
       </c>
@@ -6047,7 +6045,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="19.2">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -6061,7 +6059,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="19.2">
       <c r="B12" s="46">
         <v>10</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="19.2">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="19.2">
       <c r="B14" s="46">
         <v>12</v>
       </c>
@@ -6103,7 +6101,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="19.2">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="19.2">
       <c r="B16" s="46">
         <v>14</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="19.2">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -6145,7 +6143,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="19.2">
       <c r="B18" s="46">
         <v>16</v>
       </c>
@@ -6159,7 +6157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="19.2">
       <c r="B19" s="46">
         <v>17</v>
       </c>
@@ -6173,7 +6171,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="19.2">
       <c r="B20" s="46">
         <v>18</v>
       </c>
@@ -6187,7 +6185,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="19.2">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -6210,43 +6208,43 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:9" ht="25.2">
+      <c r="B2" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1"/>
+    <row r="4" spans="2:9" ht="19.8" thickBot="1">
+      <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="2:9" ht="19.8" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="19.2">
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6290,7 +6288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="19.2">
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="19.8" thickBot="1">
       <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
@@ -6334,7 +6332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="19.8" thickBot="1">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -6352,11 +6350,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="48" t="s">
+    <row r="10" spans="2:9" ht="19.8" thickBot="1">
+      <c r="B10" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -6372,7 +6370,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="19.8" thickBot="1">
       <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
@@ -6390,7 +6388,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="19.8" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
@@ -6402,7 +6400,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="19.8" thickBot="1">
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
@@ -6410,13 +6408,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="19.8" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
@@ -6432,7 +6430,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="19.8" thickBot="1">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -6444,17 +6442,17 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:9" ht="19.8" thickBot="1">
+      <c r="B16" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="19.8" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
@@ -6462,15 +6460,15 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="19.8" thickBot="1">
       <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
@@ -6488,7 +6486,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="19.8" thickBot="1">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6502,11 +6500,11 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="2:9" ht="19.8" thickBot="1">
+      <c r="B20" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6518,7 +6516,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="19.8" thickBot="1">
       <c r="B21" s="36" t="s">
         <v>28</v>
       </c>
@@ -6536,7 +6534,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="19.2">
       <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
@@ -6554,7 +6552,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="19.2">
       <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
@@ -6572,7 +6570,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="19.8" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
@@ -6590,7 +6588,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="19.2">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -6604,7 +6602,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="19.8" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -6618,7 +6616,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="19.2">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -6630,15 +6628,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6650,738 +6648,738 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="9.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:12" ht="19.2">
+      <c r="A1" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="53" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+    <row r="2" spans="1:12" ht="19.2">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61">
+      <c r="D2" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57">
         <v>0</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="55">
         <v>2</v>
       </c>
-      <c r="I2" s="61">
+      <c r="I2" s="57">
         <v>100</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="58">
+      <c r="J2" s="58"/>
+      <c r="K2" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.2">
+      <c r="A3" s="54">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61">
+      <c r="D3" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57">
         <v>1</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="55">
         <v>2</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="57">
         <v>100</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="63"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+      <c r="K3" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="1:12" ht="19.2">
+      <c r="A4" s="54">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="61">
+      <c r="D4" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="57">
         <v>0</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="55">
         <v>2</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="57">
         <v>120</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
+      <c r="K4" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.2">
+      <c r="A5" s="54">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61">
+      <c r="D5" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="55">
         <v>2</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="57">
         <v>120</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" s="59"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="K5" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" s="55"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.2">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="61">
+      <c r="D6" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="57">
         <v>0</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="55">
         <v>3</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="57">
         <v>140</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
+      <c r="J6" s="58"/>
+      <c r="K6" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.2">
+      <c r="A7" s="54">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="55">
         <v>3</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="57">
         <v>140</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" s="59"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+      <c r="J7" s="58"/>
+      <c r="K7" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.2">
+      <c r="A8" s="54">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61">
+      <c r="D8" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57">
         <v>0</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="55">
         <v>3</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="57">
         <v>160</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="J8" s="58"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.2">
+      <c r="A9" s="54">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61">
+      <c r="D9" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57">
         <v>1</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="55">
         <v>4</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="57">
         <v>160</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="J9" s="58"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.2">
+      <c r="A10" s="54">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61">
+      <c r="D10" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57">
         <v>0</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="55">
         <v>4</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="60">
         <v>160</v>
       </c>
-      <c r="J10" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="59"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+      <c r="J10" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.2">
+      <c r="A11" s="54">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61">
+      <c r="D11" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="55">
         <v>5</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="60">
         <v>180</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+      <c r="J11" s="58"/>
+      <c r="K11" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.2">
+      <c r="A12" s="54">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65">
+      <c r="D12" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61">
         <v>0</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="56">
         <v>5</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="62">
         <v>180</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
+      <c r="J12" s="63"/>
+      <c r="K12" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.2">
+      <c r="A13" s="54">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D13" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65">
+      <c r="D13" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61">
         <v>1</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="56">
         <v>5</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="61">
         <v>180</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+      <c r="J13" s="63"/>
+      <c r="K13" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.2">
+      <c r="A14" s="54">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D14" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65">
+      <c r="D14" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61">
         <v>0</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="56">
         <v>6</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="61">
         <v>180</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="60" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="58">
+      <c r="J14" s="63"/>
+      <c r="K14" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.2">
+      <c r="A15" s="54">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65">
+      <c r="D15" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61">
         <v>1</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="56">
         <v>6</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="61">
         <v>200</v>
       </c>
-      <c r="J15" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="J15" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.2">
+      <c r="A16" s="54">
         <v>15</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="65">
+      <c r="G16" s="61">
         <v>0</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="56">
         <v>7</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="61">
         <v>240</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+      <c r="J16" s="63"/>
+      <c r="K16" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.2">
+      <c r="A17" s="54">
         <v>16</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="65">
+      <c r="D17" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="61">
         <v>1</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="56">
         <v>7</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="61">
         <v>240</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="J17" s="63"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.2">
+      <c r="A18" s="54">
         <v>17</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D18" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65">
+      <c r="D18" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61">
         <v>0</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="56">
         <v>7</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="61">
         <v>240</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="J18" s="63"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.2">
+      <c r="A19" s="54">
         <v>18</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65">
+      <c r="D19" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61">
         <v>1</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="56">
         <v>8</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="61">
         <v>240</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="60" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="J19" s="63"/>
+      <c r="K19" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.2">
+      <c r="A20" s="54">
         <v>19</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" s="65">
+      <c r="G20" s="61">
         <v>0</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="56">
         <v>8</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="61">
         <v>240</v>
       </c>
-      <c r="J20" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="58">
+      <c r="J20" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.2">
+      <c r="A21" s="54">
         <v>20</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="56">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65">
+      <c r="D21" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61">
         <v>0</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="56">
         <v>0</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="61">
         <v>280</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>322</v>
+      <c r="J21" s="63"/>
+      <c r="K21" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7402,65 +7400,65 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="169.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="169.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.8984375" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:10" ht="19.2">
+      <c r="A1" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="52" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+    <row r="2" spans="1:10" ht="19.2">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="str">
@@ -7494,8 +7492,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="58">
+    <row r="3" spans="1:10" ht="19.2">
+      <c r="A3" s="54">
         <v>2</v>
       </c>
       <c r="B3" s="28" t="str">
@@ -7528,8 +7526,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+    <row r="4" spans="1:10" ht="19.2">
+      <c r="A4" s="54">
         <v>3</v>
       </c>
       <c r="B4" s="28" t="str">
@@ -7562,8 +7560,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
+    <row r="5" spans="1:10" ht="19.2">
+      <c r="A5" s="54">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="str">
@@ -7596,8 +7594,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+    <row r="6" spans="1:10" ht="19.2">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="str">
@@ -7630,13 +7628,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
+    <row r="7" spans="1:10" ht="19.2">
+      <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="28" t="str">
         <f>monster_ref!B9</f>
-        <v>파괴자 모로스</v>
+        <v>돌아온 모로스</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>197</v>
@@ -7646,15 +7644,15 @@
       </c>
       <c r="E7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>201</v>
@@ -7664,8 +7662,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+    <row r="8" spans="1:10" ht="19.2">
+      <c r="A8" s="54">
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -7677,16 +7675,16 @@
       <c r="D8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="48">
         <v>1</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="48">
         <v>10</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="48">
         <v>10</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="47" t="s">
         <v>257</v>
       </c>
       <c r="I8" s="18"/>
@@ -7694,8 +7692,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+    <row r="9" spans="1:10" ht="19.2">
+      <c r="A9" s="54">
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -7707,16 +7705,16 @@
       <c r="D9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="48">
         <v>2</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="48">
         <v>10</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="48">
         <v>13</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="49" t="s">
         <v>258</v>
       </c>
       <c r="I9" s="18"/>
@@ -7724,8 +7722,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+    <row r="10" spans="1:10" ht="19.2">
+      <c r="A10" s="54">
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -7737,16 +7735,16 @@
       <c r="D10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="48">
         <v>2</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="48">
         <v>15</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="48">
         <v>19</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="49" t="s">
         <v>259</v>
       </c>
       <c r="I10" s="18"/>
@@ -7754,8 +7752,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+    <row r="11" spans="1:10" ht="19.2">
+      <c r="A11" s="54">
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -7767,16 +7765,16 @@
       <c r="D11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="48">
         <v>4</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="48">
         <v>21</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="48">
         <v>19</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="49" t="s">
         <v>260</v>
       </c>
       <c r="I11" s="18"/>
@@ -7784,8 +7782,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+    <row r="12" spans="1:10" ht="19.2">
+      <c r="A12" s="54">
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -7797,16 +7795,16 @@
       <c r="D12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="48">
         <v>4</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="48">
         <v>20</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="48">
         <v>23</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="49" t="s">
         <v>261</v>
       </c>
       <c r="I12" s="18"/>
@@ -7814,8 +7812,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
+    <row r="13" spans="1:10" ht="19.2">
+      <c r="A13" s="54">
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -7827,16 +7825,16 @@
       <c r="D13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="48">
         <v>5</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="48">
         <v>20</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="48">
         <v>20</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="49" t="s">
         <v>262</v>
       </c>
       <c r="I13" s="18"/>
@@ -7844,8 +7842,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+    <row r="14" spans="1:10" ht="19.2">
+      <c r="A14" s="54">
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -7857,16 +7855,16 @@
       <c r="D14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="48">
         <v>5</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="48">
         <v>22</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="48">
         <v>22</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="49" t="s">
         <v>263</v>
       </c>
       <c r="I14" s="18"/>
@@ -7874,8 +7872,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="58">
+    <row r="15" spans="1:10" ht="19.2">
+      <c r="A15" s="54">
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -7887,16 +7885,16 @@
       <c r="D15" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="48">
         <v>6</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="48">
         <v>25</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="48">
         <v>25</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="49" t="s">
         <v>264</v>
       </c>
       <c r="I15" s="18"/>
@@ -7904,8 +7902,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+    <row r="16" spans="1:10" ht="19.2">
+      <c r="A16" s="54">
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -7917,16 +7915,16 @@
       <c r="D16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="48">
         <v>6</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="48">
         <v>28</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="48">
         <v>26</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="49" t="s">
         <v>265</v>
       </c>
       <c r="I16" s="18"/>
@@ -7934,8 +7932,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+    <row r="17" spans="1:10" ht="19.2">
+      <c r="A17" s="54">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -7947,16 +7945,16 @@
       <c r="D17" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="48">
         <v>7</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="48">
         <v>30</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="48">
         <v>30</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="49" t="s">
         <v>266</v>
       </c>
       <c r="I17" s="18"/>
@@ -7964,8 +7962,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+    <row r="18" spans="1:10" ht="19.2">
+      <c r="A18" s="54">
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -7977,16 +7975,16 @@
       <c r="D18" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="48">
         <v>9</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="48">
         <v>48</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="48">
         <v>48</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="49" t="s">
         <v>267</v>
       </c>
       <c r="I18" s="18"/>
@@ -7994,8 +7992,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+    <row r="19" spans="1:10" ht="19.2">
+      <c r="A19" s="54">
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -8007,16 +8005,16 @@
       <c r="D19" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="48">
         <v>11</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="48">
         <v>50</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="48">
         <v>50</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="49" t="s">
         <v>268</v>
       </c>
       <c r="I19" s="18"/>
@@ -8024,8 +8022,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+    <row r="20" spans="1:10" ht="19.2">
+      <c r="A20" s="54">
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -8037,16 +8035,16 @@
       <c r="D20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="48">
         <v>11</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="48">
         <v>53</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="48">
         <v>50</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="49" t="s">
         <v>269</v>
       </c>
       <c r="I20" s="18"/>
@@ -8054,8 +8052,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="58">
+    <row r="21" spans="1:10" ht="19.2">
+      <c r="A21" s="54">
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -8067,16 +8065,16 @@
       <c r="D21" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="48">
         <v>9</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="48">
         <v>37</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="48">
         <v>37</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="49" t="s">
         <v>270</v>
       </c>
       <c r="I21" s="18"/>
@@ -8084,8 +8082,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="58">
+    <row r="22" spans="1:10" ht="19.2">
+      <c r="A22" s="54">
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -8097,16 +8095,16 @@
       <c r="D22" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="48">
         <v>11</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="48">
         <v>53</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="48">
         <v>50</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="H22" s="49" t="s">
         <v>269</v>
       </c>
       <c r="I22" s="18"/>
@@ -8132,20 +8130,20 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -8177,7 +8175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
@@ -8200,12 +8198,12 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>194</v>
@@ -8227,7 +8225,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
@@ -8254,7 +8252,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
@@ -8281,7 +8279,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
@@ -8308,7 +8306,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
@@ -8337,7 +8335,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
@@ -8366,7 +8364,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
@@ -8395,7 +8393,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -8405,7 +8403,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="B12" s="30"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -8415,37 +8413,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.2">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.2">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.2">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.2">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="19.2">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="19.2">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="19.2">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -8465,51 +8463,51 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:17" ht="21">
+      <c r="B2" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="G2" s="50" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="G2" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
         <v>117</v>
       </c>
@@ -8553,7 +8551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17">
       <c r="B4" s="5" t="s">
         <v>178</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17">
       <c r="B5" s="5" t="s">
         <v>180</v>
       </c>
@@ -8627,7 +8625,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17">
       <c r="B6" s="5" t="s">
         <v>179</v>
       </c>
@@ -8663,7 +8661,7 @@
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17">
       <c r="B7" s="5" t="s">
         <v>183</v>
       </c>
@@ -8702,7 +8700,7 @@
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
         <v>195</v>
       </c>
@@ -8716,10 +8714,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="str">
-        <f>B8</f>
-        <v>파괴자 모로스</v>
+    <row r="9" spans="2:17">
+      <c r="B9" s="25" t="s">
+        <v>329</v>
       </c>
       <c r="C9" s="26">
         <v>23</v>
@@ -8731,18 +8728,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17">
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:17" ht="21">
+      <c r="B11" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="50"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="67"/>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">
         <v>117</v>
       </c>
@@ -8750,7 +8747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17">
       <c r="B13" s="5" t="s">
         <v>178</v>
       </c>
@@ -8758,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17">
       <c r="B14" s="5" t="s">
         <v>180</v>
       </c>
@@ -8766,7 +8763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17">
       <c r="B15" s="5" t="s">
         <v>179</v>
       </c>
@@ -8774,7 +8771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="19.2">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>
@@ -8785,7 +8782,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17" s="5" t="str">
         <f>B8</f>
         <v>파괴자 모로스</v>
@@ -8794,16 +8791,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18" s="25" t="str">
         <f>B9</f>
-        <v>파괴자 모로스</v>
+        <v>돌아온 모로스</v>
       </c>
       <c r="C18" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7">
       <c r="B37" t="s">
         <v>84</v>
       </c>
@@ -8823,7 +8820,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -8845,7 +8842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7">
       <c r="B39" t="s">
         <v>89</v>
       </c>
@@ -8873,11 +8870,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\DarkDice\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466506A0-24F2-47B1-85F6-BACD46EBD8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614FAC9-487B-40D3-A842-08605AF42E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="331">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1271,6 +1271,10 @@
   </si>
   <si>
     <t>돌아온 모로스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterImage/monster_darkshell</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2100,10 +2104,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5291,7 +5295,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="몬스터"/>
@@ -6219,13 +6223,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1">
@@ -6443,10 +6447,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6628,15 +6632,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6648,8 +6652,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -6718,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="57"/>
@@ -7400,8 +7404,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8105,7 +8109,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\DarkDice\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614FAC9-487B-40D3-A842-08605AF42E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CEDCAA-9831-459F-A6DB-DC5A75D8F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="330">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1159,9 +1159,6 @@
   </si>
   <si>
     <t>쉐도우</t>
-  </si>
-  <si>
-    <t>투헤드오크</t>
   </si>
   <si>
     <t>그림 리퍼</t>
@@ -2101,13 +2098,13 @@
     <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6223,30 +6220,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1">
       <c r="B5" s="12" t="s">
@@ -6355,10 +6352,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -6412,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1">
@@ -6447,10 +6444,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6464,10 +6461,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -6505,10 +6502,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6632,6 +6629,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -6639,8 +6638,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6653,7 +6650,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -6737,10 +6734,10 @@
       </c>
       <c r="J2" s="58"/>
       <c r="K2" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2" s="55" t="s">
         <v>297</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.2">
@@ -6758,7 +6755,7 @@
         <v>288</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="57">
@@ -6774,7 +6771,7 @@
         <v>196</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L3" s="59"/>
     </row>
@@ -6790,13 +6787,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G4" s="57">
         <v>0</v>
@@ -6811,7 +6808,7 @@
         <v>143</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L4" s="55"/>
     </row>
@@ -6827,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="57"/>
@@ -6844,7 +6841,7 @@
         <v>144</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L5" s="55"/>
     </row>
@@ -6860,13 +6857,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G6" s="57">
         <v>0</v>
@@ -6879,7 +6876,7 @@
       </c>
       <c r="J6" s="58"/>
       <c r="K6" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L6" s="55"/>
     </row>
@@ -6914,7 +6911,7 @@
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L7" s="55"/>
     </row>
@@ -7004,10 +7001,10 @@
         <v>160</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L10" s="55"/>
     </row>
@@ -7041,7 +7038,7 @@
         <v>284</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.2">
@@ -7071,10 +7068,10 @@
       </c>
       <c r="J12" s="63"/>
       <c r="K12" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" s="56" t="s">
         <v>306</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.2">
@@ -7106,10 +7103,10 @@
       </c>
       <c r="J13" s="63"/>
       <c r="K13" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="L13" s="56" t="s">
         <v>308</v>
-      </c>
-      <c r="L13" s="56" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.2">
@@ -7139,10 +7136,10 @@
       </c>
       <c r="J14" s="63"/>
       <c r="K14" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="L14" s="56" t="s">
         <v>310</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.2">
@@ -7173,7 +7170,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
@@ -7209,10 +7206,10 @@
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="L16" s="56" t="s">
         <v>312</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.2">
@@ -7247,7 +7244,7 @@
       <c r="J17" s="63"/>
       <c r="K17" s="56"/>
       <c r="L17" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.2">
@@ -7293,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="61"/>
@@ -7308,10 +7305,10 @@
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="L19" s="56" t="s">
         <v>315</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.2">
@@ -7332,7 +7329,7 @@
         <v>293</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G20" s="61">
         <v>0</v>
@@ -7344,13 +7341,13 @@
         <v>240</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K20" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="56" t="s">
         <v>317</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.2">
@@ -7365,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="61"/>
@@ -7380,10 +7377,10 @@
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L21" s="56" t="s">
         <v>319</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8109,7 +8106,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
@@ -8207,7 +8204,7 @@
         <v>3417</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>194</v>
@@ -8720,7 +8717,7 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="26">
         <v>23</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\DarkDice\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CEDCAA-9831-459F-A6DB-DC5A75D8F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4A4061-90B9-4E33-B77D-A759F43A12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-13935" yWindow="2355" windowWidth="28800" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="330">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2098,10 +2098,10 @@
     <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5292,7 +5292,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="몬스터"/>
@@ -5911,12 +5911,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5934,7 +5934,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2">
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.2">
+    <row r="4" spans="2:5" ht="17.25">
       <c r="B4" s="46">
         <v>2</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.2">
+    <row r="5" spans="2:5" ht="17.25">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.2">
+    <row r="6" spans="2:5" ht="17.25">
       <c r="B6" s="46">
         <v>4</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.2">
+    <row r="7" spans="2:5" ht="17.25">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.2">
+    <row r="8" spans="2:5" ht="17.25">
       <c r="B8" s="46">
         <v>6</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.2">
+    <row r="9" spans="2:5" ht="17.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.2">
+    <row r="10" spans="2:5" ht="17.25">
       <c r="B10" s="46">
         <v>8</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19.2">
+    <row r="11" spans="2:5" ht="17.25">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="19.2">
+    <row r="12" spans="2:5" ht="17.25">
       <c r="B12" s="46">
         <v>10</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.2">
+    <row r="13" spans="2:5" ht="17.25">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.2">
+    <row r="14" spans="2:5" ht="17.25">
       <c r="B14" s="46">
         <v>12</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.2">
+    <row r="15" spans="2:5" ht="17.25">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="19.2">
+    <row r="16" spans="2:5" ht="17.25">
       <c r="B16" s="46">
         <v>14</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="19.2">
+    <row r="17" spans="2:5" ht="17.25">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.2">
+    <row r="18" spans="2:5" ht="17.25">
       <c r="B18" s="46">
         <v>16</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="19.2">
+    <row r="19" spans="2:5" ht="17.25">
       <c r="B19" s="46">
         <v>17</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="19.2">
+    <row r="20" spans="2:5" ht="17.25">
       <c r="B20" s="46">
         <v>18</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.2">
+    <row r="22" spans="2:5" ht="17.25">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -6209,43 +6209,43 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.2">
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1"/>
-    <row r="4" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B4" s="65" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:9" ht="18" thickBot="1">
+      <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="65"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.8" thickBot="1">
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.2">
+    <row r="6" spans="2:9" ht="17.25">
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.2">
+    <row r="7" spans="2:9" ht="17.25">
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.8" thickBot="1">
+    <row r="8" spans="2:9" ht="18" thickBot="1">
       <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.8" thickBot="1">
+    <row r="9" spans="2:9" ht="18" thickBot="1">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -6351,11 +6351,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B10" s="65" t="s">
+    <row r="10" spans="2:9" ht="18" thickBot="1">
+      <c r="B10" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -6371,7 +6371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.8" thickBot="1">
+    <row r="11" spans="2:9" ht="18" thickBot="1">
       <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="19.8" thickBot="1">
+    <row r="12" spans="2:9" ht="18" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="19.8" thickBot="1">
+    <row r="13" spans="2:9" ht="18" thickBot="1">
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
@@ -6409,13 +6409,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="19.8" thickBot="1">
+    <row r="14" spans="2:9" ht="18" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="19.8" thickBot="1">
+    <row r="15" spans="2:9" ht="18" thickBot="1">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="19.8" thickBot="1">
+    <row r="16" spans="2:9" ht="18" thickBot="1">
       <c r="B16" s="66" t="s">
         <v>56</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" thickBot="1">
+    <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
@@ -6461,15 +6461,15 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" thickBot="1">
+    <row r="18" spans="2:9" ht="18" thickBot="1">
       <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="19.8" thickBot="1">
+    <row r="19" spans="2:9" ht="18" thickBot="1">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6501,11 +6501,11 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B20" s="65" t="s">
+    <row r="20" spans="2:9" ht="18" thickBot="1">
+      <c r="B20" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6517,7 +6517,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="19.8" thickBot="1">
+    <row r="21" spans="2:9" ht="18" thickBot="1">
       <c r="B21" s="36" t="s">
         <v>28</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="19.2">
+    <row r="22" spans="2:9" ht="17.25">
       <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="19.2">
+    <row r="23" spans="2:9" ht="17.25">
       <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="19.8" thickBot="1">
+    <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="19.2">
+    <row r="25" spans="2:9" ht="17.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -6603,7 +6603,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="19.8" thickBot="1">
+    <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -6617,7 +6617,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="19.2">
+    <row r="27" spans="2:9" ht="17.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -6629,15 +6629,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6649,27 +6649,27 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.3984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="51" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.375" style="51" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2">
+    <row r="1" spans="1:12" ht="17.25">
       <c r="A1" s="52" t="s">
         <v>129</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.2">
+    <row r="2" spans="1:12" ht="17.25">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.2">
+    <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="19.2">
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="C4" s="55">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>321</v>
@@ -6792,9 +6792,7 @@
       <c r="E4" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="57" t="s">
-        <v>321</v>
-      </c>
+      <c r="F4" s="57"/>
       <c r="G4" s="57">
         <v>0</v>
       </c>
@@ -6812,7 +6810,7 @@
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:12" ht="19.2">
+    <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -6832,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="57">
         <v>120</v>
@@ -6845,7 +6843,7 @@
       </c>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="19.2">
+    <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -6880,7 +6878,7 @@
       </c>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:12" ht="19.2">
+    <row r="7" spans="1:12" ht="17.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -6915,7 +6913,7 @@
       </c>
       <c r="L7" s="55"/>
     </row>
-    <row r="8" spans="1:12" ht="19.2">
+    <row r="8" spans="1:12" ht="17.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -6937,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="57">
         <v>160</v>
@@ -6946,7 +6944,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="19.2">
+    <row r="9" spans="1:12" ht="17.25">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -6975,7 +6973,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:12" ht="19.2">
+    <row r="10" spans="1:12" ht="17.25">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -7008,7 +7006,7 @@
       </c>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12" ht="19.2">
+    <row r="11" spans="1:12" ht="17.25">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -7041,7 +7039,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.2">
+    <row r="12" spans="1:12" ht="17.25">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -7074,7 +7072,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.2">
+    <row r="13" spans="1:12" ht="17.25">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7109,7 +7107,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.2">
+    <row r="14" spans="1:12" ht="17.25">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="61">
         <v>180</v>
@@ -7142,7 +7140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.2">
+    <row r="15" spans="1:12" ht="17.25">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7175,7 +7173,7 @@
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="1:12" ht="19.2">
+    <row r="16" spans="1:12" ht="17.25">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -7199,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="61">
         <v>240</v>
@@ -7212,7 +7210,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.2">
+    <row r="17" spans="1:12" ht="17.25">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7236,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="61">
         <v>240</v>
@@ -7247,7 +7245,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.2">
+    <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -7269,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="61">
         <v>240</v>
@@ -7278,7 +7276,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="1:12" ht="19.2">
+    <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -7298,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="61">
         <v>240</v>
@@ -7311,7 +7309,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.2">
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="61">
         <v>240</v>
@@ -7350,7 +7348,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19.2">
+    <row r="21" spans="1:12" ht="17.25">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -7388,7 +7386,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J3:J5" numberStoredAsText="1"/>
-    <ignoredError sqref="F16:F17 F20 F6:F7 F4" calculatedColumn="1"/>
+    <ignoredError sqref="F16:F17 F20 F6:F7" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7401,32 +7399,32 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="169.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" customWidth="1"/>
+    <col min="10" max="10" width="169.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.8984375" customWidth="1"/>
+    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.875" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2">
+    <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="52" t="s">
         <v>104</v>
       </c>
@@ -7458,7 +7456,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.2">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -7527,7 +7525,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.2">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -7561,7 +7559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.2">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -7595,7 +7593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.2">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.2">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -7663,7 +7661,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.2">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -7693,7 +7691,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.2">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -7723,7 +7721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.2">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -7743,7 +7741,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="48">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>259</v>
@@ -7753,7 +7751,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.2">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -7770,10 +7768,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G11" s="48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>260</v>
@@ -7783,7 +7781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.2">
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -7803,7 +7801,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="48">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>261</v>
@@ -7813,7 +7811,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.2">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7843,7 +7841,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.2">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -7873,7 +7871,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.2">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7903,7 +7901,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.2">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -7933,7 +7931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.2">
+    <row r="17" spans="1:10" ht="17.25">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7963,7 +7961,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.2">
+    <row r="18" spans="1:10" ht="17.25">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -7993,7 +7991,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.2">
+    <row r="19" spans="1:10" ht="17.25">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -8023,7 +8021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.2">
+    <row r="20" spans="1:10" ht="17.25">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -8053,7 +8051,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.2">
+    <row r="21" spans="1:10" ht="17.25">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -8083,7 +8081,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.2">
+    <row r="22" spans="1:10" ht="17.25">
       <c r="A22" s="54">
         <v>21</v>
       </c>
@@ -8131,20 +8129,20 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2">
+    <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -8176,7 +8174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
@@ -8199,7 +8197,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="19.2">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
@@ -8226,7 +8224,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="19.2">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
@@ -8253,7 +8251,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="19.2">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
@@ -8280,7 +8278,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="19.2">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
@@ -8307,7 +8305,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="19.2">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
@@ -8336,7 +8334,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="19.2">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
@@ -8365,7 +8363,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="19.2">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
@@ -8394,7 +8392,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="19.2">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -8414,37 +8412,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="19.2">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="19.2">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="19.2">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="19.2">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="19.2">
+    <row r="17" spans="2:4" ht="17.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="19.2">
+    <row r="18" spans="2:4" ht="17.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="19.2">
+    <row r="19" spans="2:4" ht="17.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -8467,27 +8465,27 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="21">
+    <row r="2" spans="2:17" ht="20.25">
       <c r="B2" s="67" t="s">
         <v>78</v>
       </c>
@@ -8734,7 +8732,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="2:17" ht="21">
+    <row r="11" spans="2:17" ht="20.25">
       <c r="B11" s="67" t="s">
         <v>23</v>
       </c>
@@ -8772,7 +8770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="19.2">
+    <row r="16" spans="2:17" ht="17.25">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4A4061-90B9-4E33-B77D-A759F43A12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89238A9-3215-4421-A697-13E5F606C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13935" yWindow="2355" windowWidth="28800" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -2101,10 +2101,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5911,12 +5911,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5934,7 +5934,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25">
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17.25">
+    <row r="4" spans="2:5" ht="19.2">
       <c r="B4" s="46">
         <v>2</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17.25">
+    <row r="5" spans="2:5" ht="19.2">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17.25">
+    <row r="6" spans="2:5" ht="19.2">
       <c r="B6" s="46">
         <v>4</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17.25">
+    <row r="7" spans="2:5" ht="19.2">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17.25">
+    <row r="8" spans="2:5" ht="19.2">
       <c r="B8" s="46">
         <v>6</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.25">
+    <row r="9" spans="2:5" ht="19.2">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17.25">
+    <row r="10" spans="2:5" ht="19.2">
       <c r="B10" s="46">
         <v>8</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17.25">
+    <row r="11" spans="2:5" ht="19.2">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17.25">
+    <row r="12" spans="2:5" ht="19.2">
       <c r="B12" s="46">
         <v>10</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17.25">
+    <row r="13" spans="2:5" ht="19.2">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17.25">
+    <row r="14" spans="2:5" ht="19.2">
       <c r="B14" s="46">
         <v>12</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="17.25">
+    <row r="15" spans="2:5" ht="19.2">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17.25">
+    <row r="16" spans="2:5" ht="19.2">
       <c r="B16" s="46">
         <v>14</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17.25">
+    <row r="17" spans="2:5" ht="19.2">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17.25">
+    <row r="18" spans="2:5" ht="19.2">
       <c r="B18" s="46">
         <v>16</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="17.25">
+    <row r="19" spans="2:5" ht="19.2">
       <c r="B19" s="46">
         <v>17</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17.25">
+    <row r="20" spans="2:5" ht="19.2">
       <c r="B20" s="46">
         <v>18</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="17.25">
+    <row r="22" spans="2:5" ht="19.2">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -6209,27 +6209,27 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="65" t="s">
+    <row r="2" spans="2:9" ht="25.2">
+      <c r="B2" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:9" ht="18" thickBot="1">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1"/>
+    <row r="4" spans="2:9" ht="19.8" thickBot="1">
       <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="I4" s="64"/>
     </row>
-    <row r="5" spans="2:9" ht="18" thickBot="1">
+    <row r="5" spans="2:9" ht="19.8" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.25">
+    <row r="6" spans="2:9" ht="19.2">
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17.25">
+    <row r="7" spans="2:9" ht="19.2">
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1">
+    <row r="8" spans="2:9" ht="19.8" thickBot="1">
       <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" thickBot="1">
+    <row r="9" spans="2:9" ht="19.8" thickBot="1">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -6351,7 +6351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18" thickBot="1">
+    <row r="10" spans="2:9" ht="19.8" thickBot="1">
       <c r="B10" s="64" t="s">
         <v>27</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" thickBot="1">
+    <row r="11" spans="2:9" ht="19.8" thickBot="1">
       <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1">
+    <row r="12" spans="2:9" ht="19.8" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1">
+    <row r="13" spans="2:9" ht="19.8" thickBot="1">
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="F13" s="64"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1">
+    <row r="14" spans="2:9" ht="19.8" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="18" thickBot="1">
+    <row r="15" spans="2:9" ht="19.8" thickBot="1">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -6443,17 +6443,17 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="18" thickBot="1">
-      <c r="B16" s="66" t="s">
+    <row r="16" spans="2:9" ht="19.8" thickBot="1">
+      <c r="B16" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="18" thickBot="1">
+    <row r="17" spans="2:9" ht="19.8" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1">
+    <row r="18" spans="2:9" ht="19.8" thickBot="1">
       <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="18" thickBot="1">
+    <row r="19" spans="2:9" ht="19.8" thickBot="1">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6501,7 +6501,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="18" thickBot="1">
+    <row r="20" spans="2:9" ht="19.8" thickBot="1">
       <c r="B20" s="64" t="s">
         <v>58</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="18" thickBot="1">
+    <row r="21" spans="2:9" ht="19.8" thickBot="1">
       <c r="B21" s="36" t="s">
         <v>28</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="17.25">
+    <row r="22" spans="2:9" ht="19.2">
       <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="17.25">
+    <row r="23" spans="2:9" ht="19.2">
       <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1">
+    <row r="24" spans="2:9" ht="19.8" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="17.25">
+    <row r="25" spans="2:9" ht="19.2">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -6603,7 +6603,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="18" thickBot="1">
+    <row r="26" spans="2:9" ht="19.8" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -6617,7 +6617,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="17.25">
+    <row r="27" spans="2:9" ht="19.2">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -6629,15 +6629,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6649,27 +6649,27 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="51" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.3984375" style="51" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25">
+    <row r="1" spans="1:12" ht="19.2">
       <c r="A1" s="52" t="s">
         <v>129</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25">
+    <row r="2" spans="1:12" ht="19.2">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25">
+    <row r="3" spans="1:12" ht="19.2">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25">
+    <row r="4" spans="1:12" ht="19.2">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25">
+    <row r="5" spans="1:12" ht="19.2">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25">
+    <row r="6" spans="1:12" ht="19.2">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25">
+    <row r="7" spans="1:12" ht="19.2">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="L7" s="55"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25">
+    <row r="8" spans="1:12" ht="19.2">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -6944,7 +6944,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25">
+    <row r="9" spans="1:12" ht="19.2">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25">
+    <row r="10" spans="1:12" ht="19.2">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12" ht="17.25">
+    <row r="11" spans="1:12" ht="19.2">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25">
+    <row r="12" spans="1:12" ht="19.2">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25">
+    <row r="13" spans="1:12" ht="19.2">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25">
+    <row r="14" spans="1:12" ht="19.2">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25">
+    <row r="15" spans="1:12" ht="19.2">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25">
+    <row r="16" spans="1:12" ht="19.2">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25">
+    <row r="17" spans="1:12" ht="19.2">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25">
+    <row r="18" spans="1:12" ht="19.2">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25">
+    <row r="19" spans="1:12" ht="19.2">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
+    <row r="20" spans="1:12" ht="19.2">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25">
+    <row r="21" spans="1:12" ht="19.2">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -7399,32 +7399,32 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="169.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="169.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.8984375" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25">
+    <row r="1" spans="1:10" ht="19.2">
       <c r="A1" s="52" t="s">
         <v>104</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25">
+    <row r="2" spans="1:10" ht="19.2">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25">
+    <row r="3" spans="1:10" ht="19.2">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25">
+    <row r="4" spans="1:10" ht="19.2">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25">
+    <row r="5" spans="1:10" ht="19.2">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25">
+    <row r="6" spans="1:10" ht="19.2">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25">
+    <row r="7" spans="1:10" ht="19.2">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.25">
+    <row r="8" spans="1:10" ht="19.2">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25">
+    <row r="9" spans="1:10" ht="19.2">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25">
+    <row r="10" spans="1:10" ht="19.2">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25">
+    <row r="11" spans="1:10" ht="19.2">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25">
+    <row r="12" spans="1:10" ht="19.2">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25">
+    <row r="13" spans="1:10" ht="19.2">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25">
+    <row r="14" spans="1:10" ht="19.2">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25">
+    <row r="15" spans="1:10" ht="19.2">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25">
+    <row r="16" spans="1:10" ht="19.2">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25">
+    <row r="17" spans="1:10" ht="19.2">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25">
+    <row r="18" spans="1:10" ht="19.2">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25">
+    <row r="19" spans="1:10" ht="19.2">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25">
+    <row r="20" spans="1:10" ht="19.2">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25">
+    <row r="21" spans="1:10" ht="19.2">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25">
+    <row r="22" spans="1:10" ht="19.2">
       <c r="A22" s="54">
         <v>21</v>
       </c>
@@ -8129,20 +8129,20 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25">
+    <row r="1" spans="1:10" ht="19.2">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25">
+    <row r="2" spans="1:10" ht="19.2">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25">
+    <row r="3" spans="1:10" ht="19.2">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
@@ -8224,7 +8224,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25">
+    <row r="4" spans="1:10" ht="19.2">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25">
+    <row r="5" spans="1:10" ht="19.2">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25">
+    <row r="6" spans="1:10" ht="19.2">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
@@ -8305,7 +8305,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25">
+    <row r="7" spans="1:10" ht="19.2">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25">
+    <row r="8" spans="1:10" ht="19.2">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25">
+    <row r="9" spans="1:10" ht="19.2">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25">
+    <row r="11" spans="1:10" ht="19.2">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -8412,37 +8412,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25">
+    <row r="13" spans="1:10" ht="19.2">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25">
+    <row r="14" spans="1:10" ht="19.2">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25">
+    <row r="15" spans="1:10" ht="19.2">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25">
+    <row r="16" spans="1:10" ht="19.2">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="17.25">
+    <row r="17" spans="2:4" ht="19.2">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="17.25">
+    <row r="18" spans="2:4" ht="19.2">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="17.25">
+    <row r="19" spans="2:4" ht="19.2">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -8465,27 +8465,27 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="20.25">
+    <row r="2" spans="2:17" ht="21">
       <c r="B2" s="67" t="s">
         <v>78</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="2:17" ht="20.25">
+    <row r="11" spans="2:17" ht="21">
       <c r="B11" s="67" t="s">
         <v>23</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="17.25">
+    <row r="16" spans="2:17" ht="19.2">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89238A9-3215-4421-A697-13E5F606C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57D0CBB-7A0C-43D0-AA92-A9E8D0B0C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1416" windowWidth="35160" windowHeight="16284" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-29880" yWindow="2895" windowWidth="28800" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -2101,10 +2101,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5911,12 +5911,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5934,7 +5934,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="19.2">
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.2">
+    <row r="4" spans="2:5" ht="17.25">
       <c r="B4" s="46">
         <v>2</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.2">
+    <row r="5" spans="2:5" ht="17.25">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.2">
+    <row r="6" spans="2:5" ht="17.25">
       <c r="B6" s="46">
         <v>4</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.2">
+    <row r="7" spans="2:5" ht="17.25">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.2">
+    <row r="8" spans="2:5" ht="17.25">
       <c r="B8" s="46">
         <v>6</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.2">
+    <row r="9" spans="2:5" ht="17.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.2">
+    <row r="10" spans="2:5" ht="17.25">
       <c r="B10" s="46">
         <v>8</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19.2">
+    <row r="11" spans="2:5" ht="17.25">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="19.2">
+    <row r="12" spans="2:5" ht="17.25">
       <c r="B12" s="46">
         <v>10</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.2">
+    <row r="13" spans="2:5" ht="17.25">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.2">
+    <row r="14" spans="2:5" ht="17.25">
       <c r="B14" s="46">
         <v>12</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.2">
+    <row r="15" spans="2:5" ht="17.25">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="19.2">
+    <row r="16" spans="2:5" ht="17.25">
       <c r="B16" s="46">
         <v>14</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="19.2">
+    <row r="17" spans="2:5" ht="17.25">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.2">
+    <row r="18" spans="2:5" ht="17.25">
       <c r="B18" s="46">
         <v>16</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="19.2">
+    <row r="19" spans="2:5" ht="17.25">
       <c r="B19" s="46">
         <v>17</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="19.2">
+    <row r="20" spans="2:5" ht="17.25">
       <c r="B20" s="46">
         <v>18</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.2">
+    <row r="22" spans="2:5" ht="17.25">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
     </row>
@@ -6209,27 +6209,27 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.2">
-      <c r="B2" s="66" t="s">
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-    </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1"/>
-    <row r="4" spans="2:9" ht="19.8" thickBot="1">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:9" ht="18" thickBot="1">
       <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="I4" s="64"/>
     </row>
-    <row r="5" spans="2:9" ht="19.8" thickBot="1">
+    <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.2">
+    <row r="6" spans="2:9" ht="17.25">
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.2">
+    <row r="7" spans="2:9" ht="17.25">
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.8" thickBot="1">
+    <row r="8" spans="2:9" ht="18" thickBot="1">
       <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.8" thickBot="1">
+    <row r="9" spans="2:9" ht="18" thickBot="1">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -6351,7 +6351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.8" thickBot="1">
+    <row r="10" spans="2:9" ht="18" thickBot="1">
       <c r="B10" s="64" t="s">
         <v>27</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.8" thickBot="1">
+    <row r="11" spans="2:9" ht="18" thickBot="1">
       <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="19.8" thickBot="1">
+    <row r="12" spans="2:9" ht="18" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="19.8" thickBot="1">
+    <row r="13" spans="2:9" ht="18" thickBot="1">
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="F13" s="64"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="19.8" thickBot="1">
+    <row r="14" spans="2:9" ht="18" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="19.8" thickBot="1">
+    <row r="15" spans="2:9" ht="18" thickBot="1">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -6443,17 +6443,17 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B16" s="65" t="s">
+    <row r="16" spans="2:9" ht="18" thickBot="1">
+      <c r="B16" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" thickBot="1">
+    <row r="17" spans="2:9" ht="18" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" thickBot="1">
+    <row r="18" spans="2:9" ht="18" thickBot="1">
       <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:9" ht="19.8" thickBot="1">
+    <row r="19" spans="2:9" ht="18" thickBot="1">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6501,7 +6501,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="19.8" thickBot="1">
+    <row r="20" spans="2:9" ht="18" thickBot="1">
       <c r="B20" s="64" t="s">
         <v>58</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="19.8" thickBot="1">
+    <row r="21" spans="2:9" ht="18" thickBot="1">
       <c r="B21" s="36" t="s">
         <v>28</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="19.2">
+    <row r="22" spans="2:9" ht="17.25">
       <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="19.2">
+    <row r="23" spans="2:9" ht="17.25">
       <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="19.8" thickBot="1">
+    <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="19.2">
+    <row r="25" spans="2:9" ht="17.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -6603,7 +6603,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="19.8" thickBot="1">
+    <row r="26" spans="2:9" ht="18" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -6617,7 +6617,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="19.2">
+    <row r="27" spans="2:9" ht="17.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -6629,15 +6629,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6649,27 +6649,27 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.3984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="51" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.375" style="51" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2">
+    <row r="1" spans="1:12" ht="17.25">
       <c r="A1" s="52" t="s">
         <v>129</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.2">
+    <row r="2" spans="1:12" ht="17.25">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.2">
+    <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="19.2">
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:12" ht="19.2">
+    <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="19.2">
+    <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:12" ht="19.2">
+    <row r="7" spans="1:12" ht="17.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="L7" s="55"/>
     </row>
-    <row r="8" spans="1:12" ht="19.2">
+    <row r="8" spans="1:12" ht="17.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -6944,7 +6944,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="19.2">
+    <row r="9" spans="1:12" ht="17.25">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:12" ht="19.2">
+    <row r="10" spans="1:12" ht="17.25">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12" ht="19.2">
+    <row r="11" spans="1:12" ht="17.25">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.2">
+    <row r="12" spans="1:12" ht="17.25">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.2">
+    <row r="13" spans="1:12" ht="17.25">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.2">
+    <row r="14" spans="1:12" ht="17.25">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.2">
+    <row r="15" spans="1:12" ht="17.25">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="1:12" ht="19.2">
+    <row r="16" spans="1:12" ht="17.25">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.2">
+    <row r="17" spans="1:12" ht="17.25">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.2">
+    <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="1:12" ht="19.2">
+    <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.2">
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19.2">
+    <row r="21" spans="1:12" ht="17.25">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -7399,32 +7399,32 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="169.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="117.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" customWidth="1"/>
+    <col min="10" max="10" width="169.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="117.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="15.8984375" customWidth="1"/>
+    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.875" customWidth="1"/>
     <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2">
+    <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="52" t="s">
         <v>104</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.2">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.2">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.2">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.2">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.2">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.2">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.2">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.2">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.2">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="48">
         <v>17</v>
@@ -7781,7 +7781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.2">
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -7795,13 +7795,13 @@
         <v>112</v>
       </c>
       <c r="E12" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="48">
         <v>20</v>
       </c>
       <c r="G12" s="48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>261</v>
@@ -7811,7 +7811,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.2">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="54">
         <v>12</v>
       </c>
@@ -7825,13 +7825,13 @@
         <v>112</v>
       </c>
       <c r="E13" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>262</v>
@@ -7841,7 +7841,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.2">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -7858,10 +7858,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G14" s="48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>263</v>
@@ -7871,7 +7871,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.2">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="54">
         <v>14</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.2">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.2">
+    <row r="17" spans="1:10" ht="17.25">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.2">
+    <row r="18" spans="1:10" ht="17.25">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.2">
+    <row r="19" spans="1:10" ht="17.25">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.2">
+    <row r="20" spans="1:10" ht="17.25">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.2">
+    <row r="21" spans="1:10" ht="17.25">
       <c r="A21" s="54">
         <v>20</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.2">
+    <row r="22" spans="1:10" ht="17.25">
       <c r="A22" s="54">
         <v>21</v>
       </c>
@@ -8129,20 +8129,20 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2">
+    <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="28">
         <v>3616</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="19.2">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="28">
         <v>3417</v>
       </c>
@@ -8224,7 +8224,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="19.2">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="28">
         <v>3418</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="19.2">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="28">
         <v>3419</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="19.2">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="28">
         <v>3420</v>
       </c>
@@ -8305,7 +8305,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="19.2">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="28">
         <v>3521</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="19.2">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="28">
         <v>3522</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="19.2">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="28">
         <v>3523</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="19.2">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -8412,37 +8412,37 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="19.2">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="B13" s="31"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="19.2">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="19.2">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="19.2">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="19.2">
+    <row r="17" spans="2:4" ht="17.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="2:4" ht="19.2">
+    <row r="18" spans="2:4" ht="17.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="19.2">
+    <row r="19" spans="2:4" ht="17.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -8465,27 +8465,27 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="21">
+    <row r="2" spans="2:17" ht="20.25">
       <c r="B2" s="67" t="s">
         <v>78</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="2:17" ht="21">
+    <row r="11" spans="2:17" ht="20.25">
       <c r="B11" s="67" t="s">
         <v>23</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="19.2">
+    <row r="16" spans="2:17" ht="17.25">
       <c r="B16" s="5" t="str">
         <f>B7</f>
         <v>그림 리퍼</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57D0CBB-7A0C-43D0-AA92-A9E8D0B0C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8ED8A-BA21-45CF-85EC-2430CB9A06DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29880" yWindow="2895" windowWidth="28800" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="2055" yWindow="1395" windowWidth="33660" windowHeight="15435" tabRatio="855" activeTab="4" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="364">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,23 +194,14 @@
   </si>
   <si>
     <t>ATK 2배</t>
-  </si>
-  <si>
-    <t>ATK 2배</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DEF 2배</t>
-  </si>
-  <si>
-    <t>DEF 2배</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>체력회복</t>
-  </si>
-  <si>
-    <t>체력회복</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -316,10 +308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>heal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개별공격력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1272,6 +1260,158 @@
   </si>
   <si>
     <t>monsterImage/monster_darkshell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉에 맞게, 골드가 아니라 다른 보석같은 것을 재화로 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간을 되돌려 주사위를 다시 굴릴 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력  포션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 주사위의 눈금 x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 포션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 주사위의 눈금 x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone of heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 1만큼 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword of hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 방패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 방패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerful shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성자의 방패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword of shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 방패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield of hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone of reverse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력1과 함께 사망직전 상태로 살아날 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시적으로 몬스터를 쇠약하게 만든다. 몬스터의 공격력과 방어력 각각 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 제외한 플레이어의 모든 스탯을 다시 배분할 수 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1283,7 +1423,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;monsterImage/monster_&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,14 +1481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1377,13 +1509,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1419,6 +1544,27 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="KBO 다이아고딕 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="KBO 다이아고딕 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="KBO 다이아고딕 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1476,7 +1622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1884,28 +2030,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,31 +2112,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
@@ -1990,124 +2160,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="32" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="9" borderId="32" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2120,6 +2296,179 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2314,165 +2663,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5440,6 +5630,45 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="description"/>
+      <sheetName val="ID_code"/>
+      <sheetName val="stage_Data"/>
+      <sheetName val="item_Data"/>
+      <sheetName val="monster_Data"/>
+      <sheetName val="monster_ref"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="I8" t="str">
+            <v>E</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9" t="str">
+            <v>A</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}" name="표2" displayName="표2" ref="B2:E20" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="B2:E20" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}">
@@ -5527,31 +5756,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:J9" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:J17" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="8" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="2" dataCellStyle="보통"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5577,11 +5806,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5921,269 +6150,269 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25">
+      <c r="B3" s="38">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25">
+      <c r="B4" s="38">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="45" t="s">
+    </row>
+    <row r="5" spans="2:5" ht="17.25">
+      <c r="B5" s="38">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="45" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="17.25">
+      <c r="B6" s="38">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25">
-      <c r="B3" s="46">
-        <v>1</v>
-      </c>
-      <c r="C3" s="28" t="s">
+    <row r="7" spans="2:5" ht="17.25">
+      <c r="B7" s="38">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D7" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25">
+      <c r="B8" s="38">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="17.25">
-      <c r="B4" s="46">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="E8" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25">
+      <c r="B9" s="38">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="17.25">
-      <c r="B5" s="46">
-        <v>3</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="E9" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.25">
+      <c r="B10" s="38">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="17.25">
-      <c r="B6" s="46">
-        <v>4</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="E10" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.25">
+      <c r="B11" s="38">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="17.25">
-      <c r="B7" s="46">
-        <v>5</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17.25">
-      <c r="B8" s="46">
-        <v>6</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="17.25">
-      <c r="B9" s="46">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="17.25">
-      <c r="B10" s="46">
-        <v>8</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="17.25">
-      <c r="B11" s="46">
-        <v>9</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="12" spans="2:5" ht="17.25">
-      <c r="B12" s="46">
+      <c r="B12" s="38">
         <v>10</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25">
+      <c r="B13" s="38">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25">
+      <c r="B14" s="38">
+        <v>12</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25">
+      <c r="B15" s="38">
+        <v>13</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25">
+      <c r="B16" s="38">
+        <v>14</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25">
+      <c r="B17" s="38">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25">
+      <c r="B18" s="38">
+        <v>16</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25">
+      <c r="B19" s="38">
+        <v>17</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="17.25">
-      <c r="B13" s="46">
-        <v>11</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="17.25">
-      <c r="B14" s="46">
-        <v>12</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="17.25">
-      <c r="B15" s="46">
-        <v>13</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D19" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17.25">
-      <c r="B16" s="46">
-        <v>14</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="18" t="s">
+    <row r="20" spans="2:5" ht="17.25">
+      <c r="B20" s="38">
+        <v>18</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="17.25">
-      <c r="B17" s="46">
-        <v>15</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="D20" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25">
-      <c r="B18" s="46">
-        <v>16</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="17.25">
-      <c r="B19" s="46">
-        <v>17</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="17.25">
-      <c r="B20" s="46">
-        <v>18</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="17.25">
@@ -6220,30 +6449,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="B2" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:9" ht="18" thickBot="1">
-      <c r="B4" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="64"/>
+      <c r="B4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="56"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="64"/>
+      <c r="H4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="B5" s="12" t="s">
@@ -6253,10 +6482,10 @@
         <v>34</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="18"/>
@@ -6264,7 +6493,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25">
@@ -6278,15 +6507,15 @@
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <v>10</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.25">
@@ -6300,15 +6529,15 @@
       <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>11</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" thickBot="1">
@@ -6322,15 +6551,15 @@
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>12</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1">
@@ -6340,49 +6569,49 @@
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>13</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>14</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" thickBot="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>15</v>
       </c>
       <c r="G11" s="18"/>
@@ -6409,10 +6638,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="64"/>
+      <c r="E13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="56"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1">
@@ -6423,10 +6652,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="18"/>
@@ -6435,19 +6664,19 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="37">
+      <c r="E15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="35">
         <v>24</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
-      <c r="B16" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="66"/>
+      <c r="B16" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="57"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6461,26 +6690,26 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="64"/>
+      <c r="E17" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="56"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" ht="18" thickBot="1">
-      <c r="B18" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="B18" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="35">
         <v>7</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="E18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="18"/>
@@ -6492,7 +6721,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="13">
         <v>16</v>
@@ -6502,10 +6731,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickBot="1">
-      <c r="B20" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="64"/>
+      <c r="B20" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="56"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6518,15 +6747,15 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" ht="18" thickBot="1">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="19">
         <v>18</v>
@@ -6544,7 +6773,7 @@
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="19">
         <v>19</v>
@@ -6562,7 +6791,7 @@
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="19">
         <v>20</v>
@@ -6580,7 +6809,7 @@
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="19">
         <v>21</v>
@@ -6594,7 +6823,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F25" s="19">
         <v>22</v>
@@ -6608,7 +6837,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="20">
         <v>23</v>
@@ -6629,15 +6858,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6655,730 +6884,730 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="9.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25">
-      <c r="A1" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="53" t="s">
+      <c r="A1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="53" t="s">
+      <c r="I1" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>199</v>
+      <c r="K1" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
-      <c r="A2" s="54">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57">
+      <c r="D2" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49">
         <v>0</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="47">
         <v>2</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="49">
         <v>100</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>297</v>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25">
-      <c r="A3" s="54">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="55">
+      <c r="B3" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57">
+      <c r="D3" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49">
         <v>1</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="47">
         <v>2</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="49">
         <v>100</v>
       </c>
-      <c r="J3" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="L3" s="59"/>
+      <c r="J3" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="17.25">
-      <c r="A4" s="54">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="55">
+      <c r="B4" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57">
+      <c r="D4" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49">
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="47">
         <v>2</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="49">
         <v>120</v>
       </c>
-      <c r="J4" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" s="55"/>
+      <c r="J4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="17.25">
-      <c r="A5" s="54">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="55">
+      <c r="B5" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57">
+      <c r="D5" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49">
         <v>1</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="47">
         <v>3</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="49">
         <v>120</v>
       </c>
-      <c r="J5" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="L5" s="55"/>
+      <c r="J5" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12" ht="17.25">
-      <c r="A6" s="54">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="55">
+      <c r="B6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="57">
+      <c r="D6" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="49">
         <v>0</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="47">
         <v>3</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="49">
         <v>140</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="L6" s="55"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" ht="17.25">
-      <c r="A7" s="54">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="57">
+      <c r="D7" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="49">
         <v>1</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="47">
         <v>3</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="49">
         <v>140</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="L7" s="55"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" ht="17.25">
-      <c r="A8" s="54">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57">
+      <c r="D8" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49">
         <v>0</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="47">
         <v>4</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="49">
         <v>160</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:12" ht="17.25">
-      <c r="A9" s="54">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57">
+      <c r="D9" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49">
         <v>1</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="47">
         <v>4</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="49">
         <v>160</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12" ht="17.25">
-      <c r="A10" s="54">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57">
+      <c r="D10" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
         <v>0</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="47">
         <v>4</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="52">
         <v>160</v>
       </c>
-      <c r="J10" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" s="55"/>
+      <c r="J10" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="17.25">
-      <c r="A11" s="54">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="55">
+      <c r="B11" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57">
+      <c r="D11" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49">
         <v>1</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="47">
         <v>5</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="52">
         <v>180</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="55" t="s">
-        <v>304</v>
+      <c r="J11" s="50"/>
+      <c r="K11" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25">
-      <c r="A12" s="54">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="56">
+      <c r="B12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D12" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61">
+      <c r="D12" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53">
         <v>0</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="48">
         <v>5</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="54">
         <v>180</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>306</v>
+      <c r="J12" s="55"/>
+      <c r="K12" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25">
-      <c r="A13" s="54">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="56">
+      <c r="B13" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61">
+      <c r="D13" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53">
         <v>1</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="48">
         <v>5</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="53">
         <v>180</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="L13" s="56" t="s">
-        <v>308</v>
+      <c r="J13" s="55"/>
+      <c r="K13" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25">
-      <c r="A14" s="54">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="56">
+      <c r="B14" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61">
+      <c r="D14" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53">
         <v>0</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="48">
         <v>5</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="53">
         <v>180</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>310</v>
+      <c r="J14" s="55"/>
+      <c r="K14" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25">
-      <c r="A15" s="54">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="56">
+      <c r="B15" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61">
+      <c r="D15" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53">
         <v>1</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="48">
         <v>6</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="53">
         <v>200</v>
       </c>
-      <c r="J15" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="J15" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12" ht="17.25">
-      <c r="A16" s="54">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="56">
+      <c r="B16" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="G16" s="61">
+      <c r="G16" s="53">
         <v>0</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="48">
         <v>6</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="53">
         <v>240</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>312</v>
+      <c r="J16" s="55"/>
+      <c r="K16" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25">
-      <c r="A17" s="54">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="56">
+      <c r="B17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="61">
+      <c r="D17" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="53">
         <v>1</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="48">
         <v>6</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="53">
         <v>240</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56" t="s">
-        <v>313</v>
+      <c r="J17" s="55"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25">
-      <c r="A18" s="54">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="56">
+      <c r="B18" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61">
+      <c r="D18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53">
         <v>0</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="48">
         <v>6</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="53">
         <v>240</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
-      <c r="A19" s="54">
+      <c r="A19" s="46">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="56">
+      <c r="B19" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61">
+      <c r="D19" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53">
         <v>1</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="48">
         <v>7</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="53">
         <v>240</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>315</v>
+      <c r="J19" s="55"/>
+      <c r="K19" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25">
-      <c r="A20" s="54">
+      <c r="A20" s="46">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" s="56">
+      <c r="B20" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" s="61">
+      <c r="D20" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="53">
         <v>0</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="48">
         <v>7</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="53">
         <v>240</v>
       </c>
-      <c r="J20" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>317</v>
+      <c r="J20" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25">
-      <c r="A21" s="54">
+      <c r="A21" s="46">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="56">
+      <c r="B21" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61">
+      <c r="D21" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53">
         <v>0</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="48">
         <v>0</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="53">
         <v>280</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>319</v>
+      <c r="J21" s="55"/>
+      <c r="K21" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7399,8 +7628,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7425,39 +7654,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="G1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="H1" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>181</v>
+      <c r="J1" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="54">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="str">
@@ -7465,7 +7694,7 @@
         <v>스켈레톤</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I7</f>
@@ -7484,15 +7713,15 @@
         <v>10</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="54">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
       <c r="B3" s="28" t="str">
@@ -7500,10 +7729,10 @@
         <v>스톤피스트</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -7518,15 +7747,15 @@
         <v>13</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="54">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
       <c r="B4" s="28" t="str">
@@ -7534,10 +7763,10 @@
         <v>아이스골렘</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -7552,15 +7781,15 @@
         <v>19</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="54">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="str">
@@ -7568,10 +7797,10 @@
         <v>그림 리퍼</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -7586,15 +7815,15 @@
         <v>19</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="54">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="str">
@@ -7602,10 +7831,10 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -7620,15 +7849,15 @@
         <v>23</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="54">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
       <c r="B7" s="28" t="str">
@@ -7636,10 +7865,10 @@
         <v>돌아온 모로스</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
@@ -7654,461 +7883,461 @@
         <v>24</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
-      <c r="A8" s="54">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="48">
+        <v>108</v>
+      </c>
+      <c r="E8" s="40">
         <v>1</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="40">
         <v>10</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="40">
         <v>10</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>257</v>
+      <c r="H8" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
-      <c r="A9" s="54">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="48">
+        <v>108</v>
+      </c>
+      <c r="E9" s="40">
         <v>2</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="40">
         <v>10</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="40">
         <v>13</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>258</v>
+      <c r="H9" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
-      <c r="A10" s="54">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="48">
+        <v>108</v>
+      </c>
+      <c r="E10" s="40">
         <v>2</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="40">
         <v>15</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="40">
         <v>14</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>259</v>
+      <c r="H10" s="41" t="s">
+        <v>255</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
-      <c r="A11" s="54">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="48">
+        <v>108</v>
+      </c>
+      <c r="E11" s="40">
         <v>4</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="40">
         <v>16</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="40">
         <v>17</v>
       </c>
-      <c r="H11" s="49" t="s">
-        <v>260</v>
+      <c r="H11" s="41" t="s">
+        <v>256</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25">
-      <c r="A12" s="54">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="48">
+        <v>108</v>
+      </c>
+      <c r="E12" s="40">
         <v>5</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="40">
         <v>20</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="40">
         <v>22</v>
       </c>
-      <c r="H12" s="49" t="s">
-        <v>261</v>
+      <c r="H12" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="A13" s="54">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="48">
+        <v>108</v>
+      </c>
+      <c r="E13" s="40">
         <v>3</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="40">
         <v>21</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="40">
         <v>21</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>262</v>
+      <c r="H13" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
-      <c r="A14" s="54">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="48">
+        <v>108</v>
+      </c>
+      <c r="E14" s="40">
         <v>5</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="40">
         <v>25</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="40">
         <v>23</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>263</v>
+      <c r="H14" s="41" t="s">
+        <v>259</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">
-      <c r="A15" s="54">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="48">
+        <v>108</v>
+      </c>
+      <c r="E15" s="40">
         <v>6</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="40">
         <v>25</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="40">
         <v>25</v>
       </c>
-      <c r="H15" s="49" t="s">
-        <v>264</v>
+      <c r="H15" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25">
-      <c r="A16" s="54">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="48">
+        <v>108</v>
+      </c>
+      <c r="E16" s="40">
         <v>6</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="40">
         <v>28</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="40">
         <v>26</v>
       </c>
-      <c r="H16" s="49" t="s">
-        <v>265</v>
+      <c r="H16" s="41" t="s">
+        <v>261</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25">
-      <c r="A17" s="54">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="48">
+        <v>108</v>
+      </c>
+      <c r="E17" s="40">
         <v>7</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="40">
         <v>30</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="40">
         <v>30</v>
       </c>
-      <c r="H17" s="49" t="s">
-        <v>266</v>
+      <c r="H17" s="41" t="s">
+        <v>262</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25">
-      <c r="A18" s="54">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="48">
+        <v>108</v>
+      </c>
+      <c r="E18" s="40">
         <v>9</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="40">
         <v>48</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="40">
         <v>48</v>
       </c>
-      <c r="H18" s="49" t="s">
-        <v>267</v>
+      <c r="H18" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25">
-      <c r="A19" s="54">
+      <c r="A19" s="46">
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="48">
+        <v>108</v>
+      </c>
+      <c r="E19" s="40">
         <v>11</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="40">
         <v>50</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="40">
         <v>50</v>
       </c>
-      <c r="H19" s="49" t="s">
-        <v>268</v>
+      <c r="H19" s="41" t="s">
+        <v>264</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25">
-      <c r="A20" s="54">
+      <c r="A20" s="46">
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="48">
+        <v>108</v>
+      </c>
+      <c r="E20" s="40">
         <v>11</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="40">
         <v>53</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="40">
         <v>50</v>
       </c>
-      <c r="H20" s="49" t="s">
-        <v>269</v>
+      <c r="H20" s="41" t="s">
+        <v>265</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25">
-      <c r="A21" s="54">
+      <c r="A21" s="46">
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="48">
+        <v>108</v>
+      </c>
+      <c r="E21" s="40">
         <v>9</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="40">
         <v>37</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="40">
         <v>37</v>
       </c>
-      <c r="H21" s="49" t="s">
-        <v>270</v>
+      <c r="H21" s="41" t="s">
+        <v>266</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25">
-      <c r="A22" s="54">
+      <c r="A22" s="46">
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="48">
+        <v>108</v>
+      </c>
+      <c r="E22" s="40">
         <v>11</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="40">
         <v>53</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="40">
         <v>50</v>
       </c>
-      <c r="H22" s="49" t="s">
-        <v>329</v>
+      <c r="H22" s="41" t="s">
+        <v>325</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8125,8 +8354,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8137,312 +8366,477 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>136</v>
+      <c r="I1" s="60" t="s">
+        <v>327</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="28">
-        <v>3616</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="39" t="str">
+        <f>[2]ID_code!I10</f>
+        <v>C</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="61">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="39" t="str">
+        <f>[2]ID_code!I8</f>
+        <v>E</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="40">
+        <v>30</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="39" t="str">
+        <f>[2]ID_code!I8</f>
+        <v>E</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="40">
+        <v>50</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="61">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="39" t="str">
+        <f>[2]ID_code!I8</f>
+        <v>E</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="40">
+        <v>50</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="61">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="39" t="str">
+        <f>[2]ID_code!I8</f>
+        <v>E</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="40">
+        <v>80</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="39" t="str">
+        <f>[2]ID_code!I9</f>
+        <v>A</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="40">
+        <v>50</v>
+      </c>
+      <c r="G7" s="64">
+        <v>4</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="39" t="str">
+        <f>[2]ID_code!I9</f>
+        <v>A</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="40">
         <v>70</v>
       </c>
-      <c r="D2" s="28" t="str">
-        <f>ID_code!I10</f>
-        <v>C</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="28">
-        <v>3417</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="28" t="str">
-        <f>ID_code!I8</f>
-        <v>E</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="18">
-        <v>35</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="42">
-        <v>2</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="28">
-        <v>3418</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="28" t="str">
-        <f>ID_code!I8</f>
-        <v>E</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="18">
-        <v>45</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="42">
+      <c r="G8" s="64">
+        <v>8</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="39" t="str">
+        <f>[2]ID_code!I9</f>
+        <v>A</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="40">
+        <v>100</v>
+      </c>
+      <c r="G9" s="64">
+        <v>12</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="61">
+        <v>9</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40">
+        <v>16</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="61">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40">
         <v>3</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="28">
-        <v>3419</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="28" t="str">
-        <f>ID_code!I8</f>
-        <v>E</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="18">
-        <v>45</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="42">
-        <v>3</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="28">
-        <v>3420</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="28" t="str">
-        <f>ID_code!I8</f>
-        <v>E</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="H11" s="40"/>
+      <c r="I11" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40">
+        <v>6</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="40">
+        <v>9</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40">
+        <v>12</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25">
+      <c r="A15" s="61">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="42">
-        <v>2</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="28">
-        <v>3521</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="28" t="str">
-        <f>ID_code!I9</f>
-        <v>A</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="18">
-        <v>50</v>
-      </c>
-      <c r="G7" s="44">
-        <v>3</v>
-      </c>
-      <c r="H7" s="42">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.25">
-      <c r="A8" s="28">
-        <v>3522</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="28" t="str">
-        <f>ID_code!I9</f>
-        <v>A</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="18">
-        <v>70</v>
-      </c>
-      <c r="G8" s="44">
-        <v>4</v>
-      </c>
-      <c r="H8" s="42">
-        <v>3</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25">
-      <c r="A9" s="28">
-        <v>3523</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="28" t="str">
-        <f>ID_code!I9</f>
-        <v>A</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="18">
-        <v>100</v>
-      </c>
-      <c r="G9" s="44">
-        <v>5</v>
-      </c>
-      <c r="H9" s="42">
-        <v>4</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="E15" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="40">
+        <v>80</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="17.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="2:4" ht="17.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="2:4" ht="17.25">
+      <c r="A16" s="61">
+        <v>15</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="40">
+        <v>60</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25">
+      <c r="A17" s="69">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="40">
+        <v>500</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="2:4" ht="17.25">
+    <row r="19" spans="1:10" ht="17.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -8486,29 +8880,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25">
-      <c r="B2" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="G2" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
+      <c r="B2" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="G2" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>18</v>
@@ -8552,7 +8946,7 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -8565,30 +8959,30 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -8597,27 +8991,27 @@
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="24">
         <f>$C$4</f>
         <v>10</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J5" s="24">
         <f>C6</f>
         <v>15</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -8626,7 +9020,7 @@
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -8636,24 +9030,24 @@
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1">
         <f>D4</f>
         <v>10</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J6" s="1">
         <f>D6</f>
         <v>19</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -8662,7 +9056,7 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1">
         <v>21</v>
@@ -8671,7 +9065,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>24</v>
@@ -8701,7 +9095,7 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -8710,12 +9104,12 @@
         <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C9" s="26">
         <v>23</v>
@@ -8724,7 +9118,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -8733,14 +9127,14 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>17</v>
@@ -8748,7 +9142,7 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8756,7 +9150,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -8764,7 +9158,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -8801,22 +9195,22 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" t="s">
-        <v>88</v>
-      </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -8843,7 +9237,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>2</v>

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8ED8A-BA21-45CF-85EC-2430CB9A06DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8419576-F7BA-46ED-8513-9EA5D1FDE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1395" windowWidth="33660" windowHeight="15435" tabRatio="855" activeTab="4" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="3945" yWindow="3525" windowWidth="33660" windowHeight="15435" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -1567,7 +1567,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,6 +1618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -2055,7 +2061,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2074,8 +2080,11 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2244,18 +2253,6 @@
     <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,189 +2283,32 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - 강조색3" xfId="3" builtinId="38"/>
     <cellStyle name="40% - 강조색2" xfId="2" builtinId="35"/>
     <cellStyle name="40% - 강조색3" xfId="4" builtinId="39"/>
     <cellStyle name="40% - 강조색4" xfId="5" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="6" builtinId="47"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="KBO 다이아고딕 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2663,6 +2503,179 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="KBO 다이아고딕 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3472,7 +3485,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]몬스터!$C$3</c:f>
+              <c:f>[2]몬스터!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3495,7 +3508,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]몬스터!$B$4:$B$9</c:f>
+              <c:f>[2]몬스터!$B$4:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3521,7 +3534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]몬스터!$C$4:$C$9</c:f>
+              <c:f>[2]몬스터!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3558,7 +3571,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]몬스터!$D$3</c:f>
+              <c:f>[2]몬스터!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3581,7 +3594,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]몬스터!$B$4:$B$9</c:f>
+              <c:f>[2]몬스터!$B$4:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3607,7 +3620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]몬스터!$D$4:$D$9</c:f>
+              <c:f>[2]몬스터!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3934,7 +3947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]몬스터!$G$12</c:f>
+              <c:f>[2]몬스터!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3957,7 +3970,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]몬스터!$H$11:$L$11</c:f>
+              <c:f>[2]몬스터!$H$11:$L$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3980,7 +3993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]몬스터!$H$12:$L$12</c:f>
+              <c:f>[2]몬스터!$H$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4014,7 +4027,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]몬스터!$G$13</c:f>
+              <c:f>[2]몬스터!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4037,7 +4050,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]몬스터!$H$11:$L$11</c:f>
+              <c:f>[2]몬스터!$H$11:$L$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4060,7 +4073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]몬스터!$H$13:$L$13</c:f>
+              <c:f>[2]몬스터!$H$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5485,6 +5498,45 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="description"/>
+      <sheetName val="ID_code"/>
+      <sheetName val="stage_Data"/>
+      <sheetName val="item_Data"/>
+      <sheetName val="monster_Data"/>
+      <sheetName val="monster_ref"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="I8" t="str">
+            <v>E</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9" t="str">
+            <v>A</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="몬스터"/>
       <sheetName val="전체분류코드"/>
       <sheetName val="ID생성표"/>
@@ -5630,45 +5682,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="description"/>
-      <sheetName val="ID_code"/>
-      <sheetName val="stage_Data"/>
-      <sheetName val="item_Data"/>
-      <sheetName val="monster_Data"/>
-      <sheetName val="monster_ref"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="I8" t="str">
-            <v>E</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9" t="str">
-            <v>A</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}" name="표2" displayName="표2" ref="B2:E20" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="B2:E20" xr:uid="{C3C32760-9EDB-4F23-895C-9FA7829DE472}">
@@ -5759,28 +5772,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:J17" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="8" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="2" dataCellStyle="보통"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16" dataCellStyle="보통"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5806,11 +5819,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6449,30 +6462,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:9" ht="18" thickBot="1">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="B5" s="12" t="s">
@@ -6581,10 +6594,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -6638,10 +6651,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1">
@@ -6673,10 +6686,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6690,10 +6703,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -6731,10 +6744,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickBot="1">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6858,6 +6871,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -6865,8 +6880,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6878,8 +6891,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7146,17 +7159,17 @@
       <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="70">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="70" t="s">
         <v>221</v>
       </c>
       <c r="F8" s="49"/>
@@ -7629,7 +7642,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8000,7 +8013,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>256</v>
@@ -8084,10 +8097,10 @@
         <v>108</v>
       </c>
       <c r="E14" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="40">
         <v>23</v>
@@ -8150,7 +8163,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="40">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>261</v>
@@ -8177,10 +8190,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="40">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" s="40">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>262</v>
@@ -8354,8 +8367,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8372,31 +8385,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="56" t="s">
         <v>327</v>
       </c>
       <c r="J1" s="28" t="s">
@@ -8404,17 +8417,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="61">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="39" t="str">
-        <f>[2]ID_code!I10</f>
+        <f>[1]ID_code!I10</f>
         <v>C</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -8429,17 +8442,17 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="61">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="59" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="39" t="str">
-        <f>[2]ID_code!I8</f>
+        <f>[1]ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -8456,17 +8469,17 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="61">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="59" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="39" t="str">
-        <f>[2]ID_code!I8</f>
+        <f>[1]ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E4" s="39" t="s">
@@ -8483,17 +8496,17 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="61">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="59" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="39" t="str">
-        <f>[2]ID_code!I8</f>
+        <f>[1]ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E5" s="39" t="s">
@@ -8510,17 +8523,17 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="61">
+      <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="59" t="s">
         <v>335</v>
       </c>
       <c r="D6" s="39" t="str">
-        <f>[2]ID_code!I8</f>
+        <f>[1]ID_code!I8</f>
         <v>E</v>
       </c>
       <c r="E6" s="39" t="s">
@@ -8537,17 +8550,17 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="61">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="59" t="s">
         <v>187</v>
       </c>
       <c r="D7" s="39" t="str">
-        <f>[2]ID_code!I9</f>
+        <f>[1]ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E7" s="39" t="s">
@@ -8556,7 +8569,7 @@
       <c r="F7" s="40">
         <v>50</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="60">
         <v>4</v>
       </c>
       <c r="H7" s="40"/>
@@ -8566,17 +8579,17 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="17.25">
-      <c r="A8" s="61">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="59" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="39" t="str">
-        <f>[2]ID_code!I9</f>
+        <f>[1]ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E8" s="39" t="s">
@@ -8585,7 +8598,7 @@
       <c r="F8" s="40">
         <v>70</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="60">
         <v>8</v>
       </c>
       <c r="H8" s="40"/>
@@ -8595,17 +8608,17 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="17.25">
-      <c r="A9" s="61">
+      <c r="A9" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="61" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="39" t="str">
-        <f>[2]ID_code!I9</f>
+        <f>[1]ID_code!I9</f>
         <v>A</v>
       </c>
       <c r="E9" s="39" t="s">
@@ -8614,7 +8627,7 @@
       <c r="F9" s="40">
         <v>100</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="60">
         <v>12</v>
       </c>
       <c r="H9" s="40"/>
@@ -8624,13 +8637,13 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="17.25">
-      <c r="A10" s="61">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="59" t="s">
         <v>341</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -8650,13 +8663,13 @@
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="17.25">
-      <c r="A11" s="61">
+      <c r="A11" s="57">
         <v>10</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="61" t="s">
         <v>344</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -8676,13 +8689,13 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A12" s="61">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="59" t="s">
         <v>347</v>
       </c>
       <c r="D12" s="39" t="s">
@@ -8702,13 +8715,13 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="A13" s="61">
+      <c r="A13" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="59" t="s">
         <v>350</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -8717,7 +8730,7 @@
       <c r="E13" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="40">
         <v>9</v>
       </c>
@@ -8728,13 +8741,13 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="17.25">
-      <c r="A14" s="61">
+      <c r="A14" s="57">
         <v>13</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="59" t="s">
         <v>353</v>
       </c>
       <c r="D14" s="39" t="s">
@@ -8754,13 +8767,13 @@
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="17.25">
-      <c r="A15" s="61">
+      <c r="A15" s="57">
         <v>14</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="61" t="s">
         <v>356</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -8780,13 +8793,13 @@
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="17.25">
-      <c r="A16" s="61">
+      <c r="A16" s="57">
         <v>15</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="61" t="s">
         <v>359</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -8806,13 +8819,13 @@
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="17.25">
-      <c r="A17" s="69">
+      <c r="A17" s="65">
         <v>16</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="61" t="s">
         <v>362</v>
       </c>
       <c r="D17" s="39" t="s">
@@ -8880,25 +8893,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="G2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
@@ -9127,10 +9140,10 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8419576-F7BA-46ED-8513-9EA5D1FDE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4494880-BC8C-49F2-822D-3BE0110CAE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3525" windowWidth="33660" windowHeight="15435" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-33090" yWindow="4875" windowWidth="31770" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="363">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -569,14 +569,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3418,3419,3522)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3523)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오픈아이템</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -781,10 +773,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3417,3420,3521)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>destroyer moros</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1243,10 +1231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(8,12)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(9,13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1412,6 +1396,18 @@
   </si>
   <si>
     <t>체력을 제외한 플레이어의 모든 스탯을 다시 배분할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6,10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5,8,12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2084,7 +2080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2283,10 +2279,13 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2295,7 +2294,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6167,13 +6166,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="11" customFormat="1" ht="17.25">
@@ -6187,7 +6186,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25">
@@ -6201,7 +6200,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="17.25">
@@ -6215,7 +6214,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="17.25">
@@ -6229,7 +6228,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="17.25">
@@ -6240,10 +6239,10 @@
         <v>95</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="17.25">
@@ -6257,7 +6256,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="17.25">
@@ -6271,7 +6270,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17.25">
@@ -6285,7 +6284,7 @@
         <v>106</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17.25">
@@ -6299,7 +6298,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="17.25">
@@ -6313,7 +6312,7 @@
         <v>126</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25">
@@ -6321,13 +6320,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="17.25">
@@ -6335,13 +6334,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17.25">
@@ -6355,7 +6354,7 @@
         <v>138</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="17.25">
@@ -6366,10 +6365,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17.25">
@@ -6377,13 +6376,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.25">
@@ -6397,7 +6396,7 @@
         <v>128</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="17.25">
@@ -6411,7 +6410,7 @@
         <v>131</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="17.25">
@@ -6419,13 +6418,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="17.25">
@@ -6462,13 +6461,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:9" ht="18" thickBot="1">
@@ -6686,10 +6685,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6871,15 +6870,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6891,8 +6890,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="B8:E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6919,7 +6918,7 @@
         <v>126</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>134</v>
@@ -6931,22 +6930,22 @@
         <v>136</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H1" s="45" t="s">
         <v>138</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
@@ -6961,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="49"/>
@@ -6976,10 +6975,10 @@
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25">
@@ -6994,10 +6993,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49">
@@ -7009,11 +7008,9 @@
       <c r="I3" s="49">
         <v>100</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>192</v>
-      </c>
+      <c r="J3" s="50"/>
       <c r="K3" s="47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L3" s="51"/>
     </row>
@@ -7029,10 +7026,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49">
@@ -7044,11 +7041,9 @@
       <c r="I4" s="49">
         <v>120</v>
       </c>
-      <c r="J4" s="50" t="s">
-        <v>139</v>
-      </c>
+      <c r="J4" s="50"/>
       <c r="K4" s="47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L4" s="47"/>
     </row>
@@ -7064,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="49"/>
@@ -7078,10 +7073,10 @@
         <v>120</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L5" s="47"/>
     </row>
@@ -7097,13 +7092,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>316</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>319</v>
       </c>
       <c r="G6" s="49">
         <v>0</v>
@@ -7116,7 +7111,7 @@
       </c>
       <c r="J6" s="50"/>
       <c r="K6" s="47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L6" s="47"/>
     </row>
@@ -7132,13 +7127,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G7" s="49">
         <v>1</v>
@@ -7151,7 +7146,7 @@
       </c>
       <c r="J7" s="50"/>
       <c r="K7" s="47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L7" s="47"/>
     </row>
@@ -7159,18 +7154,18 @@
       <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="66">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>221</v>
+      <c r="D8" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>218</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49">
@@ -7198,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="49"/>
@@ -7227,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="49"/>
@@ -7241,10 +7236,10 @@
         <v>160</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L10" s="47"/>
     </row>
@@ -7253,14 +7248,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="49"/>
@@ -7273,12 +7268,14 @@
       <c r="I11" s="52">
         <v>180</v>
       </c>
-      <c r="J11" s="50"/>
+      <c r="J11" s="50" t="s">
+        <v>361</v>
+      </c>
       <c r="K11" s="47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25">
@@ -7286,14 +7283,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="53"/>
@@ -7308,10 +7305,10 @@
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25">
@@ -7319,17 +7316,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C13" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53">
@@ -7343,10 +7340,10 @@
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="48" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25">
@@ -7354,14 +7351,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C14" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="53"/>
@@ -7376,10 +7373,10 @@
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="48" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25">
@@ -7387,18 +7384,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C15" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>285</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E15" s="71"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53">
         <v>1</v>
@@ -7410,7 +7405,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
@@ -7420,21 +7415,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>3</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>286</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="53">
         <v>0</v>
       </c>
@@ -7446,10 +7437,10 @@
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25">
@@ -7457,20 +7448,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C17" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G17" s="53">
         <v>1</v>
@@ -7484,7 +7475,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25">
@@ -7492,17 +7483,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C18" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53">
@@ -7523,14 +7514,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C19" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="53"/>
@@ -7545,10 +7536,10 @@
       </c>
       <c r="J19" s="55"/>
       <c r="K19" s="48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L19" s="48" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25">
@@ -7556,20 +7547,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C20" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G20" s="53">
         <v>0</v>
@@ -7581,13 +7572,13 @@
         <v>240</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25">
@@ -7595,14 +7586,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="53"/>
@@ -7617,19 +7608,15 @@
       </c>
       <c r="J21" s="55"/>
       <c r="K21" s="48" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J3:J5" numberStoredAsText="1"/>
-    <ignoredError sqref="F16:F17 F20 F6:F7" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7641,8 +7628,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7680,7 +7667,7 @@
         <v>103</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>104</v>
@@ -7695,7 +7682,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
@@ -7707,30 +7694,27 @@
         <v>스켈레톤</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" s="28" t="str">
         <f>ID_code!I7</f>
         <v>M</v>
       </c>
       <c r="E2" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G2" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -7742,29 +7726,26 @@
         <v>스톤피스트</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G3" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25">
@@ -7776,29 +7757,26 @@
         <v>아이스골렘</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G4" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
@@ -7810,14 +7788,13 @@
         <v>그림 리퍼</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
@@ -7828,11 +7805,11 @@
         <v>19</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
@@ -7844,7 +7821,7 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>108</v>
@@ -7862,11 +7839,11 @@
         <v>23</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
@@ -7878,7 +7855,7 @@
         <v>돌아온 모로스</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>108</v>
@@ -7896,11 +7873,11 @@
         <v>24</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
@@ -7908,10 +7885,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>108</v>
@@ -7926,11 +7903,11 @@
         <v>10</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
@@ -7938,10 +7915,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>108</v>
@@ -7956,11 +7933,11 @@
         <v>13</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
@@ -7968,10 +7945,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>108</v>
@@ -7986,11 +7963,11 @@
         <v>14</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
@@ -7998,10 +7975,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>108</v>
@@ -8016,11 +7993,11 @@
         <v>15</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25">
@@ -8028,10 +8005,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>108</v>
@@ -8046,11 +8023,11 @@
         <v>22</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25">
@@ -8058,10 +8035,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>108</v>
@@ -8076,11 +8053,11 @@
         <v>21</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
@@ -8088,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>108</v>
@@ -8106,11 +8083,11 @@
         <v>23</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">
@@ -8118,10 +8095,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>108</v>
@@ -8136,11 +8113,11 @@
         <v>25</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25">
@@ -8148,10 +8125,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>108</v>
@@ -8166,11 +8143,11 @@
         <v>28</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25">
@@ -8178,10 +8155,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>108</v>
@@ -8196,11 +8173,11 @@
         <v>32</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25">
@@ -8208,10 +8185,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>108</v>
@@ -8226,11 +8203,11 @@
         <v>48</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25">
@@ -8238,10 +8215,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>108</v>
@@ -8256,11 +8233,11 @@
         <v>50</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25">
@@ -8268,10 +8245,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>108</v>
@@ -8286,11 +8263,11 @@
         <v>50</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25">
@@ -8298,10 +8275,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>108</v>
@@ -8316,11 +8293,11 @@
         <v>37</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25">
@@ -8328,10 +8305,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>108</v>
@@ -8346,11 +8323,11 @@
         <v>50</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8398,7 +8375,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F1" s="56" t="s">
         <v>131</v>
@@ -8410,7 +8387,7 @@
         <v>132</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>133</v>
@@ -8437,7 +8414,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="39" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -8446,10 +8423,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="39" t="str">
         <f>[1]ID_code!I8</f>
@@ -8464,7 +8441,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -8473,7 +8450,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>117</v>
@@ -8491,7 +8468,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -8500,7 +8477,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>118</v>
@@ -8518,7 +8495,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="39" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -8527,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D6" s="39" t="str">
         <f>[1]ID_code!I8</f>
@@ -8545,7 +8522,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -8554,10 +8531,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>[1]ID_code!I9</f>
@@ -8574,7 +8551,7 @@
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -8583,10 +8560,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" s="39" t="str">
         <f>[1]ID_code!I9</f>
@@ -8603,7 +8580,7 @@
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="39" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -8612,10 +8589,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="39" t="str">
         <f>[1]ID_code!I9</f>
@@ -8632,7 +8609,7 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J9" s="18"/>
     </row>
@@ -8641,10 +8618,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>59</v>
@@ -8658,7 +8635,7 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -8667,10 +8644,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>59</v>
@@ -8684,7 +8661,7 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J11" s="18"/>
     </row>
@@ -8693,10 +8670,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>59</v>
@@ -8710,7 +8687,7 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -8719,10 +8696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>59</v>
@@ -8736,7 +8713,7 @@
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J13" s="18"/>
     </row>
@@ -8745,10 +8722,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>59</v>
@@ -8762,7 +8739,7 @@
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J14" s="18"/>
     </row>
@@ -8771,10 +8748,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>60</v>
@@ -8788,7 +8765,7 @@
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="39" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -8797,10 +8774,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>60</v>
@@ -8814,7 +8791,7 @@
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -8823,10 +8800,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>60</v>
@@ -8840,7 +8817,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="39" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J17" s="18"/>
     </row>
@@ -8893,25 +8870,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="G2" s="69" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="G2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
@@ -8959,7 +8936,7 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -8995,7 +8972,7 @@
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -9033,7 +9010,7 @@
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -9069,7 +9046,7 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1">
         <v>21</v>
@@ -9108,7 +9085,7 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -9122,7 +9099,7 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C9" s="26">
         <v>23</v>
@@ -9131,7 +9108,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -9140,10 +9117,10 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="70"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">
@@ -9155,7 +9132,7 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -9163,7 +9140,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -9171,7 +9148,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
@@ -9223,7 +9200,7 @@
         <v>84</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="2:7">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4494880-BC8C-49F2-822D-3BE0110CAE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8423BEA1-C8A3-44DD-B650-956652282B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33090" yWindow="4875" windowWidth="31770" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-30600" yWindow="3120" windowWidth="28350" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="364">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1408,6 +1408,10 @@
   </si>
   <si>
     <t>(5,8,12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2282,19 +2286,19 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6461,30 +6465,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:9" ht="18" thickBot="1">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="B5" s="12" t="s">
@@ -6593,10 +6597,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -6650,10 +6654,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="67"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1">
@@ -6702,10 +6706,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -6743,10 +6747,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickBot="1">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6870,15 +6874,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6891,7 +6895,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7008,7 +7012,9 @@
       <c r="I3" s="49">
         <v>100</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="50" t="s">
+        <v>363</v>
+      </c>
       <c r="K3" s="47" t="s">
         <v>291</v>
       </c>
@@ -7287,12 +7293,14 @@
       </c>
       <c r="C12" s="48">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="48" t="s">
+        <v>172</v>
+      </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53">
         <v>0</v>
@@ -7393,7 +7401,7 @@
       <c r="D15" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53">
         <v>1</v>
@@ -7421,10 +7429,10 @@
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53">
         <v>0</v>
@@ -7629,7 +7637,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8167,10 +8175,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="40">
+        <v>32</v>
+      </c>
+      <c r="G17" s="40">
         <v>33</v>
-      </c>
-      <c r="G17" s="40">
-        <v>32</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>259</v>
@@ -8314,13 +8322,13 @@
         <v>108</v>
       </c>
       <c r="E22" s="40">
-        <v>11</v>
-      </c>
-      <c r="F22" s="40">
-        <v>53</v>
-      </c>
-      <c r="G22" s="40">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="F22" s="18">
+        <v>44</v>
+      </c>
+      <c r="G22" s="18">
+        <v>43</v>
       </c>
       <c r="H22" s="41" t="s">
         <v>321</v>
@@ -8870,25 +8878,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="G2" s="70" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="G2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
@@ -9117,10 +9125,10 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="71"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8423BEA1-C8A3-44DD-B650-956652282B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E781E-1FFD-4567-BC24-F3FEB39ADD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30600" yWindow="3120" windowWidth="28350" windowHeight="15435" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="375">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1131,21 +1131,12 @@
     <t>우드골렘</t>
   </si>
   <si>
-    <t>고스트</t>
-  </si>
-  <si>
     <t>쉐도우</t>
   </si>
   <si>
-    <t>그림 리퍼</t>
-  </si>
-  <si>
     <t>돌아온 모로스</t>
   </si>
   <si>
-    <t>시작된 훈련</t>
-  </si>
-  <si>
     <t>다가올 미래에 왕국을 구하기 위한 훈련이 본격적으로 시작되었습니다.</t>
   </si>
   <si>
@@ -1158,18 +1149,12 @@
     <t>강가에서</t>
   </si>
   <si>
-    <t>노력의 성과</t>
-  </si>
-  <si>
     <t>동굴에서</t>
   </si>
   <si>
     <t>훈련의 끝</t>
   </si>
   <si>
-    <t>훌륭하게 훈련을 모두 마쳤습니다. 최종 관문은 이 산맥의 몬스터들을 수호하는 수호자를 처치하는 것입니다.</t>
-  </si>
-  <si>
     <t>성을 향해</t>
   </si>
   <si>
@@ -1188,12 +1173,6 @@
     <t>비교적 약한 몬스터병사들과 싸웠던 당신. 이번에 마주친 몬스터는 이전까지와 다르게 강력한 힘을 가진 몬스터였습니다.</t>
   </si>
   <si>
-    <t>보스와의 조우</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이렇게 빨리 몬스터들의 군주를 만나게 될지 몰랐던 당신. 당황스럽지만 오히려 혼란을 빠르게 종결할 좋은 기회라고 생각하고 드디어 왕과의 전투에 돌입합니다. </t>
-  </si>
-  <si>
     <t xml:space="preserve">도망간 모로스를 쫓아 다시 성을 향해 길을 떠납니다. </t>
   </si>
   <si>
@@ -1235,10 +1214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시간회귀석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>돌아온 모로스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1387,10 +1362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초기화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>reset</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1412,6 +1383,86 @@
   </si>
   <si>
     <t>(3,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련의 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 등장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자의 습격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은 동굴 속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 불꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘술사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 훈련은 평원에서 시작됩니다. 저멀리 귀엽게 생긴 토끼가 보이지만 결코 만만하게 보아서는 안됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 나타나 당신을 둘러싼 늑대들. 늑대들도 훈련의 일환으로 랑이가 유인해 온 것일까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산 넘어 산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨우 한 숨 돌리는가 했더니 더욱 강력한 생명체가 등장합니다. 보아하니 이 강 근처의 최상위 포식자인 것 같습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대들을 물리치고 휴식을 취하기 위해 강가로 이동하였습니다. 하지만 휴식은 아직 너무 일렀나 봅니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 층 강해진 것 같다고 느끼는 당신은 랑이에게 이끌려 언덕 위 동굴로 이동합니다. 이곳에는 또 어떤 위험이 도사리고 있을까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길어지는 훈련에 지친 당신의 눈에 화려하고 먹음직스러운 버섯이 보입니다. 하지만 화려할수록 맹독을 품고 있는법. 함부로 건드렸다가는 어떤 위기가 찾아올지 모릅니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">갑자기 밝아지는 동굴 안. 당신은 홀연듯 그 빛에 이끌려 동굴 더 깊은 곳으로 이동했습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 훌륭하게 훈련을 모두 마쳤습니다. 최종 관문은 이 산맥의 몬스터들을 수호하는 수호자를 처치하는 것입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 고된 훈련도 점점 끝이 보입니다. 이제 새로운 적이 나타나도 더 이상 두렵지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날이 저물고 어둠이 찾아왔습니다. 야영을 준비하는 당신을 방해한 것은 까만 그림자 속에서 등장한 몬스터였습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기회의 모래시계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이렇게 빨리 몬스터들의 군주를 만나게 될지 몰랐던 당신. 당황스럽지만 오히려 혼란을 빠르게 끝낼 좋은 기회라고 생각하고 드디어 왕과의 전투에 돌입합니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1618,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,6 +1676,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2084,7 +2141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2208,9 +2265,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2289,16 +2343,25 @@
     <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2312,6 +2375,235 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2991,235 +3283,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -5704,7 +5767,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="40% - 강조색3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:L21" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5720,29 +5783,29 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="53" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="11" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="9">
       <calculatedColumnFormula>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="6">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="41" dataDxfId="40" headerRowCellStyle="40% - 강조색3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:J22" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5756,47 +5819,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J17" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:J17" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16" dataCellStyle="보통"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="36" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="30" dataCellStyle="보통"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5822,11 +5885,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6465,13 +6528,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:9" ht="18" thickBot="1">
@@ -6874,6 +6937,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -6881,8 +6946,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6894,732 +6957,750 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="147.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49">
+      <c r="E2" s="46"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48">
         <v>0</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="46">
         <v>2</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="48">
         <v>100</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>290</v>
+      <c r="J2" s="49"/>
+      <c r="K2" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49">
+      <c r="E3" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48">
         <v>1</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="46">
         <v>2</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="48">
         <v>100</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="L3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="17.25">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49">
+      <c r="D4" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48">
         <v>0</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>2</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <v>120</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="17.25">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>4</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49">
+      <c r="D5" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48">
         <v>1</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>3</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <v>120</v>
       </c>
-      <c r="J5" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="L5" s="47"/>
+      <c r="J5" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="17.25">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="D6" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="48">
         <v>0</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>3</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>140</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="L6" s="47"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="17.25">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>6</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>3</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <v>1</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="46">
         <v>3</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <v>140</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="47"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="17.25">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48">
         <v>0</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <v>4</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="48">
         <v>160</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="17.25">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49">
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48">
         <v>1</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="46">
         <v>4</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <v>160</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17.25">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="E10" s="46"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <v>0</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>4</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="51">
         <v>160</v>
       </c>
-      <c r="J10" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" s="47"/>
+      <c r="J10" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="17.25">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49">
+      <c r="E11" s="46"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48">
         <v>1</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="46">
         <v>5</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="51">
         <v>180</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="K11" s="47" t="s">
+      <c r="J11" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="L11" s="47" t="s">
-        <v>297</v>
+      <c r="L11" s="46" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>11</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52">
         <v>0</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="47">
         <v>5</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="53">
         <v>180</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>299</v>
+      <c r="J12" s="54"/>
+      <c r="K12" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>12</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52">
         <v>1</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="47">
         <v>5</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="52">
         <v>180</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>301</v>
+      <c r="J13" s="54"/>
+      <c r="K13" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>13</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53">
+      <c r="E14" s="47"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52">
         <v>0</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="47">
         <v>5</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <v>180</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>303</v>
+      <c r="J14" s="54"/>
+      <c r="K14" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53">
+      <c r="E15" s="66"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
         <v>1</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="47">
         <v>6</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="52">
         <v>200</v>
       </c>
-      <c r="J15" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="J15" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12" ht="17.25">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>15</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53">
+      <c r="E16" s="66"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52">
         <v>0</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="47">
         <v>6</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="52">
         <v>240</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>305</v>
+      <c r="J16" s="54"/>
+      <c r="K16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>16</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="48">
-        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>3</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="53">
-        <v>1</v>
-      </c>
-      <c r="H17" s="48">
-        <v>6</v>
-      </c>
-      <c r="I17" s="53">
-        <v>240</v>
-      </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25">
-      <c r="A18" s="46">
-        <v>17</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="48">
+      <c r="C17" s="71">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53">
-        <v>0</v>
-      </c>
-      <c r="H18" s="48">
+      <c r="D17" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="52">
+        <v>1</v>
+      </c>
+      <c r="H17" s="47">
         <v>6</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I17" s="52">
         <v>240</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25">
-      <c r="A19" s="46">
-        <v>18</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19" s="48">
+      <c r="J17" s="54"/>
+      <c r="K17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53">
-        <v>1</v>
-      </c>
-      <c r="H19" s="48">
-        <v>7</v>
-      </c>
-      <c r="I19" s="53">
+      <c r="D18" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52">
+        <v>0</v>
+      </c>
+      <c r="H18" s="47">
+        <v>6</v>
+      </c>
+      <c r="I18" s="52">
         <v>240</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25">
-      <c r="A20" s="46">
-        <v>19</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="48">
-        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="53">
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <v>7</v>
-      </c>
-      <c r="I20" s="53">
-        <v>240</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25">
-      <c r="A21" s="46">
-        <v>20</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="48">
+      <c r="J18" s="54"/>
+      <c r="K18" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
-      <c r="D21" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53">
+      <c r="D19" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52">
+        <v>1</v>
+      </c>
+      <c r="H19" s="47">
+        <v>7</v>
+      </c>
+      <c r="I19" s="52">
+        <v>240</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="47">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52">
         <v>0</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H20" s="47">
+        <v>7</v>
+      </c>
+      <c r="I20" s="52">
+        <v>240</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="47">
+        <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52">
         <v>0</v>
       </c>
-      <c r="I21" s="53">
+      <c r="H21" s="47">
+        <v>0</v>
+      </c>
+      <c r="I21" s="52">
         <v>280</v>
       </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>312</v>
+      <c r="J21" s="54"/>
+      <c r="K21" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7636,8 +7717,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7662,680 +7743,676 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="str">
+      <c r="B2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>10</v>
+      </c>
+      <c r="G2" s="18">
+        <v>10</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="18">
+        <v>13</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18">
+        <v>14</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18">
+        <v>16</v>
+      </c>
+      <c r="G5" s="18">
+        <v>15</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="18">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18">
+        <v>22</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>21</v>
+      </c>
+      <c r="G7" s="18">
+        <v>21</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>24</v>
+      </c>
+      <c r="G8" s="18">
+        <v>23</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="18">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>25</v>
+      </c>
+      <c r="G9" s="18">
+        <v>25</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="18">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18">
+        <v>28</v>
+      </c>
+      <c r="G10" s="18">
+        <v>28</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="18">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18">
+        <v>32</v>
+      </c>
+      <c r="G11" s="18">
+        <v>33</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="str">
         <f>monster_ref!B4</f>
         <v>스켈레톤</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C12" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="28" t="str">
+      <c r="D12" s="28" t="str">
         <f>ID_code!I7</f>
         <v>M</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E12" s="18">
         <v>4</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F12" s="18">
         <v>35</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G12" s="18">
         <v>35</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="46">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28" t="str">
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="str">
         <f>monster_ref!B5</f>
         <v>스톤피스트</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E13" s="18">
         <v>5</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F13" s="18">
         <v>36</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G13" s="18">
         <v>38</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H13" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="46">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28" t="str">
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="str">
         <f>monster_ref!B6</f>
         <v>아이스골렘</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D14" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E14" s="18">
         <v>8</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F14" s="18">
         <v>41</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G14" s="18">
         <v>41</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H14" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="46">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28" t="str">
+    <row r="15" spans="1:10" ht="17.25">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9</v>
+      </c>
+      <c r="F15" s="18">
+        <v>44</v>
+      </c>
+      <c r="G15" s="18">
+        <v>43</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="str">
+        <f>monster_ref!B8</f>
+        <v>파괴자 모로스</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="18">
+        <v>10</v>
+      </c>
+      <c r="F16" s="18">
+        <v>46</v>
+      </c>
+      <c r="G16" s="18">
+        <v>48</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5</v>
+      </c>
+      <c r="F17" s="18">
+        <v>49</v>
+      </c>
+      <c r="G17" s="18">
+        <v>49</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.25">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="18">
+        <v>7</v>
+      </c>
+      <c r="F18" s="18">
+        <v>52</v>
+      </c>
+      <c r="G18" s="18">
+        <v>50</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="18">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18">
+        <v>55</v>
+      </c>
+      <c r="G19" s="18">
+        <v>55</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="18">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18">
+        <v>37</v>
+      </c>
+      <c r="G20" s="18">
+        <v>37</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="str">
         <f>monster_ref!B7</f>
         <v>그림 리퍼</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D21" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="18">
-        <v>9</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E21" s="18">
+        <v>11</v>
+      </c>
+      <c r="F21" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
         <v>21</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G21" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>19</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H21" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="46">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28" t="str">
-        <f>monster_ref!B8</f>
-        <v>파괴자 모로스</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F6" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
-        <v>20</v>
-      </c>
-      <c r="G6" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
-        <v>23</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="46">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28" t="str">
+    <row r="22" spans="1:10" ht="17.25">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="str">
         <f>monster_ref!B9</f>
         <v>돌아온 모로스</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D22" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="18">
-        <f>VLOOKUP(표3[[#This Row],[name]],monster_ref!$B$12:$C$18,2,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E22" s="18">
+        <v>12</v>
+      </c>
+      <c r="F22" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</f>
         <v>23</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G22" s="18">
         <f>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</f>
         <v>24</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H22" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25">
-      <c r="A8" s="46">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="40">
-        <v>1</v>
-      </c>
-      <c r="F8" s="40">
-        <v>10</v>
-      </c>
-      <c r="G8" s="40">
-        <v>10</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25">
-      <c r="A9" s="46">
-        <v>8</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="40">
-        <v>2</v>
-      </c>
-      <c r="F9" s="40">
-        <v>10</v>
-      </c>
-      <c r="G9" s="40">
-        <v>13</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25">
-      <c r="A10" s="46">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="40">
-        <v>2</v>
-      </c>
-      <c r="F10" s="40">
-        <v>15</v>
-      </c>
-      <c r="G10" s="40">
-        <v>14</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25">
-      <c r="A11" s="46">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="40">
-        <v>4</v>
-      </c>
-      <c r="F11" s="40">
-        <v>16</v>
-      </c>
-      <c r="G11" s="40">
-        <v>15</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25">
-      <c r="A12" s="46">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="40">
-        <v>5</v>
-      </c>
-      <c r="F12" s="40">
-        <v>20</v>
-      </c>
-      <c r="G12" s="40">
-        <v>22</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25">
-      <c r="A13" s="46">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="40">
-        <v>3</v>
-      </c>
-      <c r="F13" s="40">
-        <v>21</v>
-      </c>
-      <c r="G13" s="40">
-        <v>21</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25">
-      <c r="A14" s="46">
-        <v>13</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="40">
-        <v>3</v>
-      </c>
-      <c r="F14" s="40">
-        <v>24</v>
-      </c>
-      <c r="G14" s="40">
-        <v>23</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.25">
-      <c r="A15" s="46">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="40">
-        <v>6</v>
-      </c>
-      <c r="F15" s="40">
-        <v>25</v>
-      </c>
-      <c r="G15" s="40">
-        <v>25</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25">
-      <c r="A16" s="46">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="40">
-        <v>6</v>
-      </c>
-      <c r="F16" s="40">
-        <v>28</v>
-      </c>
-      <c r="G16" s="40">
-        <v>28</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.25">
-      <c r="A17" s="46">
-        <v>16</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="40">
-        <v>7</v>
-      </c>
-      <c r="F17" s="40">
-        <v>32</v>
-      </c>
-      <c r="G17" s="40">
-        <v>33</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.25">
-      <c r="A18" s="46">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="40">
-        <v>9</v>
-      </c>
-      <c r="F18" s="40">
-        <v>48</v>
-      </c>
-      <c r="G18" s="40">
-        <v>48</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25">
-      <c r="A19" s="46">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="40">
-        <v>11</v>
-      </c>
-      <c r="F19" s="40">
-        <v>50</v>
-      </c>
-      <c r="G19" s="40">
-        <v>50</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.25">
-      <c r="A20" s="46">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="40">
-        <v>11</v>
-      </c>
-      <c r="F20" s="40">
-        <v>53</v>
-      </c>
-      <c r="G20" s="40">
-        <v>50</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25">
-      <c r="A21" s="46">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="40">
-        <v>9</v>
-      </c>
-      <c r="F21" s="40">
-        <v>37</v>
-      </c>
-      <c r="G21" s="40">
-        <v>37</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.25">
-      <c r="A22" s="46">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="40">
-        <v>9</v>
-      </c>
-      <c r="F22" s="18">
-        <v>44</v>
-      </c>
-      <c r="G22" s="18">
-        <v>43</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>321</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8353,7 +8430,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8370,45 +8447,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="56" t="s">
-        <v>323</v>
+      <c r="I1" s="55" t="s">
+        <v>315</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="57">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="39" t="str">
@@ -8422,18 +8499,18 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="39" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="39" t="str">
@@ -8449,18 +8526,18 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="39" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="57">
+      <c r="A4" s="56">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="39" t="str">
@@ -8476,18 +8553,18 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="57">
+      <c r="A5" s="56">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="39" t="str">
@@ -8503,19 +8580,19 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="39" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>331</v>
+      <c r="B6" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>323</v>
       </c>
       <c r="D6" s="39" t="str">
         <f>[1]ID_code!I8</f>
@@ -8530,18 +8607,18 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="39" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="57">
+      <c r="A7" s="56">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="39" t="str">
@@ -8554,23 +8631,23 @@
       <c r="F7" s="40">
         <v>50</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="59">
         <v>4</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="39" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="17.25">
-      <c r="A8" s="57">
+      <c r="A8" s="56">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>186</v>
       </c>
       <c r="D8" s="39" t="str">
@@ -8583,23 +8660,23 @@
       <c r="F8" s="40">
         <v>70</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <v>8</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="39" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="17.25">
-      <c r="A9" s="57">
+      <c r="A9" s="56">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>187</v>
       </c>
       <c r="D9" s="39" t="str">
@@ -8612,24 +8689,24 @@
       <c r="F9" s="40">
         <v>100</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="59">
         <v>12</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="39" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="17.25">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>337</v>
+      <c r="B10" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>329</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>59</v>
@@ -8643,19 +8720,19 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="39" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="17.25">
-      <c r="A11" s="57">
+      <c r="A11" s="56">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>340</v>
+      <c r="B11" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>332</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>59</v>
@@ -8669,19 +8746,19 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="39" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>343</v>
+      <c r="B12" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>335</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>59</v>
@@ -8695,19 +8772,19 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="A13" s="57">
+      <c r="A13" s="56">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>346</v>
+      <c r="B13" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>338</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>59</v>
@@ -8715,25 +8792,25 @@
       <c r="E13" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="40">
         <v>9</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="39" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="17.25">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>349</v>
+      <c r="B14" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>341</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>59</v>
@@ -8747,19 +8824,19 @@
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="39" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="17.25">
-      <c r="A15" s="57">
+      <c r="A15" s="56">
         <v>14</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>352</v>
+      <c r="B15" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>344</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>60</v>
@@ -8773,19 +8850,19 @@
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="39" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="17.25">
-      <c r="A16" s="57">
+      <c r="A16" s="56">
         <v>15</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>355</v>
+      <c r="B16" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>347</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>60</v>
@@ -8799,19 +8876,19 @@
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="39" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="17.25">
-      <c r="A17" s="65">
+      <c r="A17" s="64">
         <v>16</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>358</v>
+      <c r="B17" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>349</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>60</v>
@@ -8825,7 +8902,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="39" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="J17" s="18"/>
     </row>
@@ -8878,25 +8955,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="G2" s="71" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="G2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
@@ -9107,7 +9184,7 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="25" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C9" s="26">
         <v>23</v>
@@ -9125,10 +9202,10 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="70"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">

--- a/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E781E-1FFD-4567-BC24-F3FEB39ADD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817623E7-C278-4A88-9392-5AEA199A1B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="2" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="900" yWindow="1155" windowWidth="35910" windowHeight="15435" tabRatio="855" activeTab="4" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="383">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -741,14 +741,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>평범한 검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강력한 검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각성자의 검</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1463,6 +1455,46 @@
   </si>
   <si>
     <t xml:space="preserve">이렇게 빨리 몬스터들의 군주를 만나게 될지 몰랐던 당신. 당황스럽지만 오히려 혼란을 빠르게 끝낼 좋은 기회라고 생각하고 드디어 왕과의 전투에 돌입합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인이 만든 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 강철을 제련하여 만든 검.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인정신으로 정교한 무늬를 세겨넣은 검.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 힘을 각성했던 용병이 사용했던 검.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 자격을 갖춘 사람만이 쓸 수 있다는 검.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 강철을 제련하여 만든 방패.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인정신으로 정교한 무늬를 세겨넣은 방패.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 힘을 각성했던 용병이 사용했던 방패.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 자격을 갖춘 사람만이 쓸 수 있다는 방패.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2343,7 +2375,13 @@
     <xf numFmtId="176" fontId="13" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2352,16 +2390,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2375,235 +2407,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3283,6 +3086,235 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5767,7 +5799,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="40% - 강조색3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:L21" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:L21" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5783,29 +5815,29 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="11" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="53" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="51">
       <calculatedColumnFormula>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="48">
       <calculatedColumnFormula>표3[[#This Row],[name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_hp" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_coin" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{16AC2542-0BB8-4573-B0D6-E7FC48FC2FF0}" name="stage_fullname" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{CC2A6C46-331D-4AA2-B4BA-67EC194D8A2F}" name="stage_info" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="40% - 강조색3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J22" headerRowDxfId="41" dataDxfId="40" headerRowCellStyle="40% - 강조색3">
   <autoFilter ref="A1:J22" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5819,47 +5851,47 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="hp" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{105408C5-D9C0-44F0-A870-D9BE4782B17F}" name="enemy_info" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J17" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="A1:J17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:J17" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="36" dataCellStyle="20% - 강조색3"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="30" dataCellStyle="보통"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="22" dataCellStyle="20% - 강조색3"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="buy_type" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="16" dataCellStyle="보통"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="image" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="info" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}" name="표1_8" displayName="표1_8" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="B3:D10" xr:uid="{DCDA4F24-5C72-4BAC-95D6-FA90FEDAFDFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{067AA415-18DF-4E25-B1E4-702E5A434479}" name="몬스터유닛" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C2EAD120-8106-48D6-A4BE-6B50127A292A}" name="공격력" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4EA097C8-2E33-4349-95B8-AF57FD207D06}" name="방어력" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5885,11 +5917,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}" name="표1" displayName="표1" ref="B12:C18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B12:C18" xr:uid="{2AA2D02D-1F9D-4FC7-B9FA-62D4EA30C842}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{63ACFE6B-8148-4D1A-8EE5-804402BB2ABE}" name="몬스터유닛" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E32E1503-E62F-4EA7-9DB3-CD6644E25D73}" name="체력" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6528,30 +6560,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:9" ht="18" thickBot="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="2:9" ht="18" thickBot="1">
       <c r="B5" s="12" t="s">
@@ -6660,10 +6692,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>15</v>
@@ -6717,10 +6749,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1">
@@ -6752,10 +6784,10 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6769,10 +6801,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -6810,10 +6842,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickBot="1">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>38</v>
@@ -6937,8 +6969,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -6946,6 +6976,8 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6957,7 +6989,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -7009,10 +7041,10 @@
         <v>140</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
@@ -7027,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="48"/>
@@ -7042,10 +7074,10 @@
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L2" s="46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25">
@@ -7060,10 +7092,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F3" s="48"/>
       <c r="G3" s="48">
@@ -7076,13 +7108,13 @@
         <v>100</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25">
@@ -7097,10 +7129,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F4" s="48"/>
       <c r="G4" s="48">
@@ -7114,10 +7146,10 @@
       </c>
       <c r="J4" s="49"/>
       <c r="K4" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25">
@@ -7132,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="48"/>
@@ -7146,13 +7178,13 @@
         <v>120</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25">
@@ -7167,13 +7199,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G6" s="48">
         <v>0</v>
@@ -7186,10 +7218,10 @@
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25">
@@ -7204,13 +7236,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" s="48">
         <v>1</v>
@@ -7223,10 +7255,10 @@
       </c>
       <c r="J7" s="49"/>
       <c r="K7" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25">
@@ -7241,10 +7273,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48">
@@ -7258,10 +7290,10 @@
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25">
@@ -7276,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -7291,10 +7323,10 @@
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25">
@@ -7309,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="48"/>
@@ -7323,13 +7355,13 @@
         <v>160</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25">
@@ -7337,14 +7369,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" s="46">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="48"/>
@@ -7358,13 +7390,13 @@
         <v>180</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L11" s="46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25">
@@ -7372,14 +7404,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>172</v>
@@ -7396,10 +7428,10 @@
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25">
@@ -7407,17 +7439,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="52">
@@ -7431,10 +7463,10 @@
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25">
@@ -7442,14 +7474,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C14" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="52"/>
@@ -7464,10 +7496,10 @@
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25">
@@ -7475,14 +7507,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="52"/>
@@ -7496,7 +7528,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K15" s="47"/>
       <c r="L15" s="47"/>
@@ -7506,14 +7538,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="52"/>
@@ -7528,30 +7560,30 @@
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25">
       <c r="A17" s="45">
         <v>16</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="71">
+      <c r="B17" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="67">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>2</v>
       </c>
-      <c r="D17" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="72"/>
+      <c r="D17" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="68"/>
       <c r="G17" s="52">
         <v>1</v>
       </c>
@@ -7563,10 +7595,10 @@
       </c>
       <c r="J17" s="54"/>
       <c r="K17" s="47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25">
@@ -7574,14 +7606,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="52"/>
@@ -7596,10 +7628,10 @@
       </c>
       <c r="J18" s="54"/>
       <c r="K18" s="47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25">
@@ -7607,14 +7639,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C19" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="52"/>
@@ -7629,10 +7661,10 @@
       </c>
       <c r="J19" s="54"/>
       <c r="K19" s="47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L19" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25">
@@ -7640,7 +7672,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
@@ -7661,13 +7693,13 @@
         <v>240</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25">
@@ -7675,14 +7707,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" s="47">
         <f>COUNTA(표14[[#This Row],[enemy_unit1]:[enemy_unit3]])</f>
         <v>1</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="52"/>
@@ -7697,10 +7729,10 @@
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L21" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -7779,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>108</v>
@@ -7797,11 +7829,11 @@
         <v>10</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -7809,10 +7841,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>108</v>
@@ -7826,12 +7858,12 @@
       <c r="G3" s="18">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
-        <v>251</v>
+      <c r="H3" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25">
@@ -7839,10 +7871,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>108</v>
@@ -7856,12 +7888,12 @@
       <c r="G4" s="18">
         <v>14</v>
       </c>
-      <c r="H4" s="73" t="s">
-        <v>252</v>
+      <c r="H4" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
@@ -7869,10 +7901,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>108</v>
@@ -7886,12 +7918,12 @@
       <c r="G5" s="18">
         <v>15</v>
       </c>
-      <c r="H5" s="73" t="s">
-        <v>253</v>
+      <c r="H5" s="69" t="s">
+        <v>251</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
@@ -7899,10 +7931,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>108</v>
@@ -7916,12 +7948,12 @@
       <c r="G6" s="18">
         <v>22</v>
       </c>
-      <c r="H6" s="73" t="s">
-        <v>254</v>
+      <c r="H6" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
@@ -7929,10 +7961,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>108</v>
@@ -7946,12 +7978,12 @@
       <c r="G7" s="18">
         <v>21</v>
       </c>
-      <c r="H7" s="73" t="s">
-        <v>255</v>
+      <c r="H7" s="69" t="s">
+        <v>253</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
@@ -7959,10 +7991,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>108</v>
@@ -7976,12 +8008,12 @@
       <c r="G8" s="18">
         <v>23</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>256</v>
+      <c r="H8" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
@@ -7989,10 +8021,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>108</v>
@@ -8006,12 +8038,12 @@
       <c r="G9" s="18">
         <v>25</v>
       </c>
-      <c r="H9" s="73" t="s">
-        <v>257</v>
+      <c r="H9" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
@@ -8019,10 +8051,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>108</v>
@@ -8036,12 +8068,12 @@
       <c r="G10" s="18">
         <v>28</v>
       </c>
-      <c r="H10" s="73" t="s">
-        <v>258</v>
+      <c r="H10" s="69" t="s">
+        <v>256</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
@@ -8049,10 +8081,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>108</v>
@@ -8066,12 +8098,12 @@
       <c r="G11" s="18">
         <v>33</v>
       </c>
-      <c r="H11" s="73" t="s">
-        <v>259</v>
+      <c r="H11" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25">
@@ -8099,11 +8131,11 @@
         <v>35</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25">
@@ -8130,11 +8162,11 @@
         <v>38</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
@@ -8161,11 +8193,11 @@
         <v>41</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">
@@ -8173,10 +8205,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>108</v>
@@ -8190,12 +8222,12 @@
       <c r="G15" s="18">
         <v>43</v>
       </c>
-      <c r="H15" s="73" t="s">
-        <v>313</v>
+      <c r="H15" s="69" t="s">
+        <v>311</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25">
@@ -8207,7 +8239,7 @@
         <v>파괴자 모로스</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>108</v>
@@ -8222,11 +8254,11 @@
         <v>48</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25">
@@ -8234,10 +8266,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>108</v>
@@ -8251,12 +8283,12 @@
       <c r="G17" s="18">
         <v>49</v>
       </c>
-      <c r="H17" s="73" t="s">
-        <v>260</v>
+      <c r="H17" s="69" t="s">
+        <v>258</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25">
@@ -8264,10 +8296,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>108</v>
@@ -8281,12 +8313,12 @@
       <c r="G18" s="18">
         <v>50</v>
       </c>
-      <c r="H18" s="73" t="s">
-        <v>261</v>
+      <c r="H18" s="69" t="s">
+        <v>259</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25">
@@ -8294,10 +8326,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>108</v>
@@ -8311,12 +8343,12 @@
       <c r="G19" s="18">
         <v>55</v>
       </c>
-      <c r="H19" s="73" t="s">
-        <v>262</v>
+      <c r="H19" s="69" t="s">
+        <v>260</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25">
@@ -8324,10 +8356,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>108</v>
@@ -8341,12 +8373,12 @@
       <c r="G20" s="18">
         <v>37</v>
       </c>
-      <c r="H20" s="73" t="s">
-        <v>263</v>
+      <c r="H20" s="69" t="s">
+        <v>261</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25">
@@ -8375,11 +8407,11 @@
         <v>19</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25">
@@ -8391,7 +8423,7 @@
         <v>돌아온 모로스</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>108</v>
@@ -8408,11 +8440,11 @@
         <v>24</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8429,8 +8461,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8460,7 +8492,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F1" s="55" t="s">
         <v>131</v>
@@ -8472,7 +8504,7 @@
         <v>132</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>133</v>
@@ -8499,7 +8531,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -8508,10 +8540,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="39" t="str">
         <f>[1]ID_code!I8</f>
@@ -8526,7 +8558,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -8535,7 +8567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>117</v>
@@ -8553,7 +8585,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -8562,7 +8594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>118</v>
@@ -8580,7 +8612,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -8589,10 +8621,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6" s="39" t="str">
         <f>[1]ID_code!I8</f>
@@ -8607,7 +8639,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -8616,10 +8648,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>182</v>
+        <v>373</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>[1]ID_code!I9</f>
@@ -8636,19 +8668,21 @@
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>323</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="56">
         <v>7</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="39" t="str">
         <f>[1]ID_code!I9</f>
@@ -8665,19 +8699,21 @@
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>324</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="56">
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="39" t="str">
         <f>[1]ID_code!I9</f>
@@ -8694,19 +8730,21 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="56">
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>59</v>
@@ -8720,19 +8758,21 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="J10" s="18"/>
+        <v>328</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="56">
         <v>10</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>59</v>
@@ -8746,19 +8786,21 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="J11" s="18"/>
+        <v>331</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="56">
         <v>11</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>59</v>
@@ -8772,19 +8814,21 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="J12" s="18"/>
+        <v>334</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="56">
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>59</v>
@@ -8798,19 +8842,21 @@
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="J13" s="18"/>
+        <v>337</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="56">
         <v>13</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>59</v>
@@ -8824,19 +8870,21 @@
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="J14" s="18"/>
+        <v>340</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="56">
         <v>14</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>60</v>
@@ -8850,7 +8898,7 @@
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -8859,10 +8907,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>60</v>
@@ -8876,7 +8924,7 @@
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -8885,10 +8933,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>60</v>
@@ -8902,7 +8950,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J17" s="18"/>
     </row>
@@ -8955,25 +9003,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="G2" s="70" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="21" t="s">
@@ -9170,7 +9218,7 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -9184,7 +9232,7 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" s="26">
         <v>23</v>
@@ -9193,7 +9241,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -9202,10 +9250,10 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="20.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="73"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21" t="s">
